--- a/Clase/Modelo de dominio/doo/doo.xlsx
+++ b/Clase/Modelo de dominio/doo/doo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Clase\Modelo de dominio\doo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F01F969-45C6-4D27-91E9-DEC13D9DC224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1B1A65-35E1-4ABF-89C9-4A94C57C57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="5" activeTab="8" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="21" activeTab="24" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -24,21 +24,24 @@
     <sheet name="compromiso fina datos simulados" sheetId="10" r:id="rId9"/>
     <sheet name="persona" sheetId="11" r:id="rId10"/>
     <sheet name="persona datos simulados" sheetId="12" r:id="rId11"/>
-    <sheet name="presupuesto datos simulados" sheetId="14" r:id="rId12"/>
-    <sheet name="presupuesto " sheetId="13" r:id="rId13"/>
-    <sheet name="año datos simulados" sheetId="16" r:id="rId14"/>
-    <sheet name="año" sheetId="15" r:id="rId15"/>
-    <sheet name="detalles presupuesto datos simu" sheetId="18" r:id="rId16"/>
-    <sheet name="detalles presupuesto" sheetId="17" r:id="rId17"/>
-    <sheet name="historico detalle pres. d.s." sheetId="20" r:id="rId18"/>
-    <sheet name="historico detalle presupuesto " sheetId="19" r:id="rId19"/>
-    <sheet name="ejecucion real detalle p. d.s." sheetId="22" r:id="rId20"/>
-    <sheet name="ejecucion real detalle p." sheetId="21" r:id="rId21"/>
-    <sheet name="mes datos simulados" sheetId="24" r:id="rId22"/>
-    <sheet name="mes" sheetId="23" r:id="rId23"/>
-    <sheet name="tipo detalle presupuesto d.s." sheetId="26" r:id="rId24"/>
-    <sheet name="tipo detalle presupuesto " sheetId="25" r:id="rId25"/>
+    <sheet name="presupuesto " sheetId="13" r:id="rId12"/>
+    <sheet name="presupuesto datos simulados" sheetId="14" r:id="rId13"/>
+    <sheet name="año" sheetId="15" r:id="rId14"/>
+    <sheet name="año datos simulados" sheetId="16" r:id="rId15"/>
+    <sheet name="detalles presupuesto" sheetId="17" r:id="rId16"/>
+    <sheet name="detalles presupuesto datos simu" sheetId="18" r:id="rId17"/>
+    <sheet name="historico detalle presupuesto " sheetId="19" r:id="rId18"/>
+    <sheet name="historico detalle pres. d.s." sheetId="20" r:id="rId19"/>
+    <sheet name="ejecucion real detalle p." sheetId="21" r:id="rId20"/>
+    <sheet name="ejecucion real detalle p. d.s." sheetId="22" r:id="rId21"/>
+    <sheet name="mes" sheetId="23" r:id="rId22"/>
+    <sheet name="mes datos simulados" sheetId="24" r:id="rId23"/>
+    <sheet name="tipo detalle presupuesto " sheetId="25" r:id="rId24"/>
+    <sheet name="tipo detalle presupuesto d.s." sheetId="26" r:id="rId25"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId26"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="278">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -277,18 +280,12 @@
     <t>mes con en el que se relaciona una informacion</t>
   </si>
   <si>
-    <t>cantidad</t>
-  </si>
-  <si>
     <t>solo numeros</t>
   </si>
   <si>
     <t>en caso de que no se registre una cantidad, se registrara el valor de 1</t>
   </si>
   <si>
-    <t xml:space="preserve">año </t>
-  </si>
-  <si>
     <t>Responsabilidad</t>
   </si>
   <si>
@@ -475,15 +472,9 @@
     <t>comportamiento que permite elimiar la informacion de un compromiso financiero</t>
   </si>
   <si>
-    <t>atributo que indica si el tipo de compromiso financiero esta activo o inacivo</t>
-  </si>
-  <si>
     <t xml:space="preserve">no es posible tener mas de un tipo de compromiso financiero con el mismo nombre  </t>
   </si>
   <si>
-    <t>compromiso financiero{codigo,nombre,descripcion,estado}</t>
-  </si>
-  <si>
     <t>compromiso financiero{codigo}</t>
   </si>
   <si>
@@ -493,9 +484,6 @@
     <t>comportamiento que permite registrar la informacion de un persona</t>
   </si>
   <si>
-    <t>persona{codigo,nombre,descripcion,estado}</t>
-  </si>
-  <si>
     <t>consultar persona</t>
   </si>
   <si>
@@ -535,12 +523,6 @@
     <t>Llave</t>
   </si>
   <si>
-    <t xml:space="preserve">valor </t>
-  </si>
-  <si>
-    <t>tipo compromiso financiero</t>
-  </si>
-  <si>
     <t>Fecha de vencimiento</t>
   </si>
   <si>
@@ -584,12 +566,345 @@
   </si>
   <si>
     <t xml:space="preserve">Estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor </t>
+  </si>
+  <si>
+    <t>Tipo compromiso financiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Datos simulados</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un compromiso financiero asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Atributo que representa un detalle adicional que se deba dar respecto a un compromiso financiero determinado con el objetivo de que pueda ser comprendido mas facilmente</t>
+  </si>
+  <si>
+    <t>Atributo que representa el valor del compromiso financiero adquirido</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha en que vence el compromiso financierio</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un tipo de rubro determinado</t>
+  </si>
+  <si>
+    <t>Atributo que representa un detalle adicional que se deba dar respecto a un tipo de rubro determinado con el objetivo de que pueda ser comprendido mas facilmente</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el tipo de rubro está activo o inactivo, lo que indica que pueda ser o no utilizado</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>formato de un identificador unico universal UUID</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de persona asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un rol</t>
+  </si>
+  <si>
+    <t>Solo letras y espacios</t>
+  </si>
+  <si>
+    <t>Quitar espacios al inicio y al final</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de una persona</t>
+  </si>
+  <si>
+    <t>Correo electronico</t>
+  </si>
+  <si>
+    <t>Cualquier tipo de carácter</t>
+  </si>
+  <si>
+    <t>Atributo que representa el correo electrónico de la persona</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Números y caracteres especiales</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>En caso de que no se registre, se colocará activo</t>
+  </si>
+  <si>
+    <t>Atributo que indica si la personaestá activa o inactiva, lo que indica que pueda ser o no utilizado</t>
+  </si>
+  <si>
+    <t>Atributo que representa el teléfono y un tipo de comunicación con la persona</t>
+  </si>
+  <si>
+    <t>crear Presupuesto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite registrar la informacion de un Presupuesto</t>
+  </si>
+  <si>
+    <t>Presupuesto{codigo,nombre,descripcion,estado}</t>
+  </si>
+  <si>
+    <t>consultar Presupuesto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite consultar la informacion de un Presupuesto. Que cumpla con las condiciones recibidas</t>
+  </si>
+  <si>
+    <t>modificar Presupuesto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite modificar la informacion de un Presupuesto</t>
+  </si>
+  <si>
+    <t>eliminar Presupuesto</t>
+  </si>
+  <si>
+    <t>comportamiento que permite elimiar la informacion de un Presupuesto</t>
+  </si>
+  <si>
+    <t>Presupuesto{codigo}</t>
+  </si>
+  <si>
+    <t>persona{Codigo, Nombre,  Estado, Rol, Correo electronico, Telefono}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no es posible que existan mas de un compromiso financiero con el mismo </t>
+  </si>
+  <si>
+    <t>compromiso financiero{codigo, nombre, descripcion, Tipo compromiso financiero, Fecha vencimiento, valor}</t>
+  </si>
+  <si>
+    <t>Prestamo Bancario Davivienda</t>
+  </si>
+  <si>
+    <t>Cuota préstamo con el banco davivienda por compra de moto</t>
+  </si>
+  <si>
+    <t>Facutra EPM</t>
+  </si>
+  <si>
+    <t>Factura de Agua y Energia</t>
+  </si>
+  <si>
+    <t>Servicios publicos</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Alejandro </t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>sarr1998@hotmail.com</t>
+  </si>
+  <si>
+    <t>megamarkzeus1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un presupuesto asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Atributo que representa el año en el cual se realiza el presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de la persona a la cual se realizará el presupuesto</t>
+  </si>
+  <si>
+    <t>Registrar Presupuesto</t>
+  </si>
+  <si>
+    <t>Modificar Presupuesto</t>
+  </si>
+  <si>
+    <t>Eliminar Presupuesto</t>
+  </si>
+  <si>
+    <t>Consultar Presupuesto</t>
+  </si>
+  <si>
+    <t>Cerrar Presupuesto</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Requerido / No modificado</t>
+  </si>
+  <si>
+    <t>Requerido / Mostrar</t>
+  </si>
+  <si>
+    <t>Requerido / Modificado</t>
+  </si>
+  <si>
+    <t>No requerido</t>
+  </si>
+  <si>
+    <t>Registrar Persona</t>
+  </si>
+  <si>
+    <t>Modificar Persona</t>
+  </si>
+  <si>
+    <t>Eliminar Persona</t>
+  </si>
+  <si>
+    <t>Consultar Persona</t>
+  </si>
+  <si>
+    <t>Cerrar Persona</t>
+  </si>
+  <si>
+    <t>Registrar Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Modificar Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Eliminar Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Consultar Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Cerrar Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Registrar Año</t>
+  </si>
+  <si>
+    <t>Modificar Año</t>
+  </si>
+  <si>
+    <t>Eliminar Año</t>
+  </si>
+  <si>
+    <t>Consultar Año</t>
+  </si>
+  <si>
+    <t>Cerrar Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año </t>
+  </si>
+  <si>
+    <t>crear Año</t>
+  </si>
+  <si>
+    <t>comportamiento que permite registrar la informacion de un Año</t>
+  </si>
+  <si>
+    <t>consultar Año</t>
+  </si>
+  <si>
+    <t>comportamiento que permite consultar la informacion de un Año. Que cumpla con las condiciones recibidas</t>
+  </si>
+  <si>
+    <t>modificar Año</t>
+  </si>
+  <si>
+    <t>comportamiento que permite modificar la informacion de un Año</t>
+  </si>
+  <si>
+    <t>eliminar Año</t>
+  </si>
+  <si>
+    <t>comportamiento que permite elimiar la informacion de un Año</t>
+  </si>
+  <si>
+    <t>Año{codigo}</t>
+  </si>
+  <si>
+    <t>Año{codigoo}</t>
+  </si>
+  <si>
+    <t>Codigo Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un detalle de presupuesto asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Tipo Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Rubro</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Formato numérico decimal</t>
+  </si>
+  <si>
+    <t>En caso que no se registre se coloca cero</t>
+  </si>
+  <si>
+    <t>Valor numérico con 2 decimales</t>
+  </si>
+  <si>
+    <t>Atributo que representa el valor presupuestado para un rubro en un mes determinado</t>
+  </si>
+  <si>
+    <t>Nombre combinación</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>Combinación 1</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un rubro en un mes con el mismmo tipo de detalle de presupuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,7 +956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,8 +1065,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -927,12 +1248,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1064,13 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,105 +1458,206 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1333,6 +1772,126 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo de Dominio"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Tipo Compromiso Financiero"/>
+      <sheetName val="Tipo CompromisoFinanciero-Datos"/>
+      <sheetName val="Tipo Documento"/>
+      <sheetName val="Tipo Documento-Datos"/>
+      <sheetName val="Tipo Rubro"/>
+      <sheetName val="Tipo rubro-Datos simulados"/>
+      <sheetName val="Rol"/>
+      <sheetName val="Rol-Datos"/>
+      <sheetName val="Año"/>
+      <sheetName val="Año-Dato Simulado"/>
+      <sheetName val="Persona"/>
+      <sheetName val="Persona-Dato Simulado"/>
+      <sheetName val="Historico Detalle Presupuesto"/>
+      <sheetName val="Historico Detalle Ppto-Dato"/>
+      <sheetName val="Ejecucion Real Detalle Ppto"/>
+      <sheetName val="Ejecucion Detalle Ppto-Datos"/>
+      <sheetName val="Tipo Detalle Presupuesto"/>
+      <sheetName val="Tipo Detalle Ppto-Dato Simulado"/>
+      <sheetName val="Detalle Presupuesto"/>
+      <sheetName val="Detalle Ppto-Dato Simulado"/>
+      <sheetName val="Compromiso financiero"/>
+      <sheetName val="CompromisoFinan-Dato Simulado"/>
+      <sheetName val="Mes-Dato Simulado"/>
+      <sheetName val="Mes"/>
+      <sheetName val="Presupuesto"/>
+      <sheetName val="Presupuesto-Dato Simulado"/>
+      <sheetName val="Rubro"/>
+      <sheetName val="Rubro-Dato Simulado"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>Atributo que representa el identificador de un tipo de compromiso financiero asegurando que sea único</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4">
+            <v>2023</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>JUAN IGNACIO</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>JUAN ESTEBAN</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>Atributo que representa el identificador de un tipo de detalle de presupuesto asegurando que sea único</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26">
+        <row r="6">
+          <cell r="P6" t="str">
+            <v xml:space="preserve">Atributo que representa el número del mes </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>Atributo que representa el identificador de un presupuesto asegurando que sea único</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="7">
+          <cell r="P7" t="str">
+            <v>Atributo que representa el identificador de un rubro dentro de un tipo de rubro</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,108 +2202,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>8</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="63">
         <v>9</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="63">
         <v>10</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="63">
         <v>12</v>
       </c>
       <c r="C12" s="18"/>
@@ -1770,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB81AC8-F440-45B0-90F7-F04147D538D3}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView topLeftCell="P4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,85 +2353,97 @@
     <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
+    <col min="17" max="17" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>persona</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>usuario con su informacion</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -1921,266 +2492,533 @@
       <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>12</v>
+      <c r="Q5" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="T5" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
+        <v>180</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="107">
+        <v>36</v>
+      </c>
+      <c r="D6" s="107">
+        <v>36</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="21">
+      <c r="M6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="109">
         <v>36</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="109">
         <v>36</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="21">
+      <c r="L7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S7" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="109">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D8" s="109">
         <v>50</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T8" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="109">
+        <v>50</v>
+      </c>
+      <c r="D9" s="109">
+        <v>50</v>
+      </c>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T9" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="109">
+        <v>36</v>
+      </c>
+      <c r="D10" s="109">
+        <v>36</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S10" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R11" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S11" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="18" t="str">
-        <f>A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="C15" s="18" t="str">
+        <f>A11</f>
+        <v>Estado</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B16" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="17" t="s">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="72" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="70" t="s">
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="72" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="70"/>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="70"/>
+      <c r="I23" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
     <hyperlink ref="A4" location="'persona datos simulados'!A1" display="datos simulados" xr:uid="{E0A483AF-DE2C-431E-9EAC-3418A3988749}"/>
+    <hyperlink ref="A4:I4" location="'objeto de dominio'!A1" display="datos simulados" xr:uid="{87EA2C58-4AAE-42D0-AE8C-15B7F6890F3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FADC4CF-0E37-4BBC-BF73-977EA000556A}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A418D5DF-2F18-4E01-A3F4-1EE99CF9DC99}">
           <x14:formula1>
             <xm:f>valores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
+          <xm:sqref>B6 B8:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF6F6964-69BA-4DF7-AEE0-813639E435A3}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>O6:O11 N6:N10 K6:M11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2190,27 +3028,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E43EB5-7F8F-47B8-97BF-2F8952DF22E9}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2222,64 +3060,75 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
+        <f>persona!$A$6</f>
+        <v>Codigo</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
+        <f>persona!$A$8</f>
         <v>Nombre</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
+        <f>persona!$A$9</f>
+        <v>Correo electronico</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <f>persona!$A$10</f>
+        <v>Telefono</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>persona!$A$11</f>
+        <v>Estado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3">
+        <v>3125411231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>219</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4">
+        <v>3154567967</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{2F75A882-A16C-47F7-807F-4CD31D1D4A9B}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{4E68A10D-DEFE-46DE-A8D3-0A8543887C37}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{DEAE0BC8-B528-46A0-8A07-9D91A8C78EC9}"/>
+    <hyperlink ref="A2" location="persona!A6" display="persona!A6" xr:uid="{2D05F395-A974-48DE-A483-376CC9739DB0}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{7B415D16-C448-4B2C-A650-EB1039073927}"/>
+    <hyperlink ref="B2:D2" location="persona!A6" display="persona!A6" xr:uid="{7E1ECF52-2CAC-498E-9A4A-8F5C89B95D9C}"/>
+    <hyperlink ref="E2" location="persona!A6" display="persona!A6" xr:uid="{370775A5-2EAD-4A41-8B66-C5368DD030F9}"/>
+    <hyperlink ref="A1:C1" location="persona!A1" display="valor inicial " xr:uid="{2ED55F71-864C-4DAF-A131-6052D972F94A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0B56B937-C499-4178-8720-C44A297017DE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{16DBCABA-264D-498B-B88A-168E881ECD3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2289,7 +3138,7 @@
           <x14:formula1>
             <xm:f>valores!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>E3:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2298,126 +3147,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9004F226-EC64-4971-A203-FC8B4C3FF85A}">
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{06A445BA-B451-4197-BF38-24940273D6CF}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{843F7BDD-8D68-463A-9E31-20814081DF19}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{7E2BFDC2-D120-48E9-95F8-AAF40FC0D68C}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{89C8B9AB-A379-4733-8664-CDE2DF06EA2B}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE1C971E-7644-4436-AC64-D9582EDF055C}">
-          <x14:formula1>
-            <xm:f>valores!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9004F226-EC64-4971-A203-FC8B4C3FF85A}">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -2432,85 +3172,90 @@
     <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
+    <col min="17" max="17" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A6</f>
         <v xml:space="preserve">presupuesto </v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Conjunto de los gastos e ingresos previstos para un determinado período de tiempo</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2559,13 +3304,28 @@
       <c r="P5" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="8">
         <v>36</v>
@@ -2584,30 +3344,45 @@
         <v>29</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="P6" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -2626,30 +3401,45 @@
         <v>29</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P7" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S7" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -2670,69 +3460,99 @@
         <v>29</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T8" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q9" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T9" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2744,7 +3564,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
@@ -2753,15 +3573,15 @@
       </c>
       <c r="C13" s="18" t="str">
         <f>A7</f>
-        <v>nombre</v>
+        <v>Persona</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2769,16 +3589,116 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="11"/>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="I21" s="94"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -2800,9 +3720,9 @@
           </x14:formula1>
           <xm:sqref>K6:O9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1FFD362-8A0C-4555-89F2-83C2FEB915E8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF7BB8C6-7519-4599-A33F-C1E853C11552}">
           <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
+            <xm:f>valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B9</xm:sqref>
         </x14:dataValidation>
@@ -2812,7 +3732,498 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE82A0-DB6A-4CD5-B840-CBF5C731FB0F}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>'presupuesto '!$A$6</f>
+        <v>Identificador</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>'presupuesto '!$A$7</f>
+        <v>Persona</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>'presupuesto '!$A$8</f>
+        <v xml:space="preserve">Descripcion </v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>'presupuesto '!$A$9</f>
+        <v>Año</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="119">
+        <v>2</v>
+      </c>
+      <c r="B3" s="104">
+        <f>+'[1]Año-Dato Simulado'!$A$4</f>
+        <v>2023</v>
+      </c>
+      <c r="C3" s="104" t="str">
+        <f>+'[1]Persona-Dato Simulado'!$D3</f>
+        <v>JUAN IGNACIO</v>
+      </c>
+      <c r="D3" s="104"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="119">
+        <v>3</v>
+      </c>
+      <c r="B4" s="104">
+        <f>+'[1]Año-Dato Simulado'!$A$4</f>
+        <v>2023</v>
+      </c>
+      <c r="C4" s="104" t="str">
+        <f>+'[1]Persona-Dato Simulado'!$D4</f>
+        <v>JUAN ESTEBAN</v>
+      </c>
+      <c r="D4" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" location="'presupuesto '!A8" display="'presupuesto '!A8" xr:uid="{7E2BFDC2-D120-48E9-95F8-AAF40FC0D68C}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{58C5DFB8-8B06-4286-AC24-C52666EA63C5}"/>
+    <hyperlink ref="D2" location="'presupuesto '!A8" display="'presupuesto '!A8" xr:uid="{915ACE86-580C-416E-A70D-382513AED16E}"/>
+    <hyperlink ref="A2" location="'presupuesto '!A8" display="'presupuesto '!A8" xr:uid="{3A58B71C-2F10-4BAA-A097-1E3863AA8F5F}"/>
+    <hyperlink ref="B2" location="'presupuesto '!A8" display="'presupuesto '!A8" xr:uid="{FEE52EA3-D748-4862-BB58-4E52E06BAA1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>'objeto de dominio'!$A$1</f>
+        <v>objetos de dominio</v>
+      </c>
+      <c r="B2" s="90" t="str">
+        <f>'objeto de dominio'!A7</f>
+        <v>año</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>'objeto de dominio'!B1</f>
+        <v>descripcio</v>
+      </c>
+      <c r="B3" s="91" t="str">
+        <f>'objeto de dominio'!B7</f>
+        <v>año con en el que se relaciona una informacion</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="T5" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21">
+        <v>36</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" location="'año datos simulados'!A1" display="datos simulados" xr:uid="{3544F9ED-80DF-45D5-A032-80ECB60EBB03}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A709D13-655E-4B02-864D-3222C857312B}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CBFF0C7-21B9-4C9C-83AD-D6DB5D89F28F}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -2829,12 +4240,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -2921,18 +4332,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
-  <dimension ref="A1:P12"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -2946,245 +4357,704 @@
     <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
+    <col min="16" max="16" width="73.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
-        <f>'objeto de dominio'!A7</f>
-        <v>año</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="90" t="str">
+        <f>'objeto de dominio'!A8</f>
+        <v>detalles presupuesto</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
-        <f>'objeto de dominio'!B7</f>
-        <v>año con en el que se relaciona una informacion</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="91">
+        <f>'objeto de dominio'!B8</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>75</v>
+      <c r="Q5" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>263</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21">
+        <v>156</v>
+      </c>
+      <c r="C6" s="107">
         <v>36</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="D6" s="107">
+        <v>36</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="107">
+        <v>36</v>
+      </c>
+      <c r="D7" s="107">
+        <v>36</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="107"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="71" t="str">
+        <f>+[1]Presupuesto!P6</f>
+        <v>Atributo que representa el identificador de un presupuesto asegurando que sea único</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S7" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="107">
+        <v>36</v>
+      </c>
+      <c r="D8" s="107">
+        <v>36</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N8" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="71" t="str">
+        <f>+'[1]Tipo Detalle Presupuesto'!P6</f>
+        <v>Atributo que representa el identificador de un tipo de detalle de presupuesto asegurando que sea único</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T8" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="107">
+        <v>36</v>
+      </c>
+      <c r="D9" s="107">
+        <v>36</v>
+      </c>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="107" t="str">
+        <f>+[1]Rubro!P7</f>
+        <v>Atributo que representa el identificador de un rubro dentro de un tipo de rubro</v>
+      </c>
+      <c r="Q9" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T9" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="107">
+        <v>2</v>
+      </c>
+      <c r="D10" s="107">
+        <v>2</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="107" t="str">
+        <f>+[1]Mes!$P6</f>
+        <v xml:space="preserve">Atributo que representa el número del mes </v>
+      </c>
+      <c r="Q10" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S10" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="107">
+        <v>36</v>
+      </c>
+      <c r="D11" s="107">
+        <v>36</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R11" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S11" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="105" t="str">
+        <f>+A8</f>
+        <v>Tipo Detalle Presupuesto</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="105" t="str">
+        <f t="shared" ref="C16:C17" si="0">+A9</f>
+        <v>Rubro</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="105" t="str">
+        <f t="shared" si="0"/>
+        <v>Mes</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{272CF8F6-3DCF-4BE3-B676-6F7EB1504DF9}"/>
-    <hyperlink ref="A4" location="'año datos simulados'!A1" display="datos simulados" xr:uid="{3544F9ED-80DF-45D5-A032-80ECB60EBB03}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D650644-FFEC-4B37-9193-FDFBE7D6B5DF}"/>
+    <hyperlink ref="A4" location="'detalles presupuesto datos simu'!A1" display="datos simulados" xr:uid="{56A99A49-00B4-41C3-8147-857D44470D65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{725FBF76-2B6E-451E-AD6B-83113FDA9CEF}">
+          <x14:formula1>
+            <xm:f>valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6 B8:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBAB2E-38B0-4A92-9C59-FA8DBF34BEC1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -3201,12 +5071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3293,522 +5163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="str">
-        <f>'objeto de dominio'!$A$1</f>
-        <v>objetos de dominio</v>
-      </c>
-      <c r="B2" s="79" t="str">
-        <f>'objeto de dominio'!A8</f>
-        <v>detalles presupuesto</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
-        <f>'objeto de dominio'!B1</f>
-        <v>descripcio</v>
-      </c>
-      <c r="B3" s="77">
-        <f>'objeto de dominio'!B8</f>
-        <v>8</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="18" t="str">
-        <f>A7</f>
-        <v>nombre</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D650644-FFEC-4B37-9193-FDFBE7D6B5DF}"/>
-    <hyperlink ref="A4" location="'detalles presupuesto datos simu'!A1" display="datos simulados" xr:uid="{56A99A49-00B4-41C3-8147-857D44470D65}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7278E34-69C9-4490-926D-A2FBA22C7526}">
-          <x14:formula1>
-            <xm:f>valores!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9829D51-C8F8-4F02-9DED-50E6D055CCEA}">
-          <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B9</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612731F-09A7-4DBE-AD4C-0BAC186A2E74}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2FF3A405-E19D-4693-B1E0-060F48BAC3FB}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7C625551-1007-4041-A06B-86D441A7E48D}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{E5AB9271-0620-4A85-8DAA-993D84728506}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{08F895E6-C13A-4BAB-AFE9-14EC288B7D5A}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{C32B3212-8D84-43EF-8D91-15E8B822369B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AA7988F-5C95-43CE-A0A4-648AF90E4EE4}">
-          <x14:formula1>
-            <xm:f>valores!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -3838,72 +5193,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A9</f>
         <v xml:space="preserve">historico detalle presupuesto </v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="91">
         <f>'objeto de dominio'!B9</f>
         <v>9</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4160,10 +5515,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -4172,8 +5527,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -4214,6 +5569,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612731F-09A7-4DBE-AD4C-0BAC186A2E74}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>'tipo rubro'!A6</f>
+        <v>Identificador</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>'tipo rubro'!A7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>'tipo rubro'!A8</f>
+        <v xml:space="preserve">Descripcion </v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>'tipo rubro'!A9</f>
+        <v xml:space="preserve">Estado </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{2FF3A405-E19D-4693-B1E0-060F48BAC3FB}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7C625551-1007-4041-A06B-86D441A7E48D}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{E5AB9271-0620-4A85-8DAA-993D84728506}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{08F895E6-C13A-4BAB-AFE9-14EC288B7D5A}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{C32B3212-8D84-43EF-8D91-15E8B822369B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AA7988F-5C95-43CE-A0A4-648AF90E4EE4}">
+          <x14:formula1>
+            <xm:f>valores!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726A8A9A-0834-419F-91BF-946D55C33AB2}">
   <dimension ref="A1:D12"/>
@@ -4240,115 +5704,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2965285-6401-4B64-BC72-4ABFD8289385}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{ECCCA0FD-DC49-4519-A9E0-3F5DC50282A3}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{8A5FE58F-363E-4451-B053-80D643247C07}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2496F028-8783-4642-8937-685A8DEE285B}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{CF13BB1D-DD6C-49D0-82B8-63E18986D348}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2F8DF9FC-71A4-4006-9235-319F4AB60DAE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6B5450D-99B7-49B7-B893-B38C8F82B0F8}">
-          <x14:formula1>
-            <xm:f>valores!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEBBFCD-84FA-4767-AE39-9B7EBFB1471E}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -4378,72 +5733,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A10</f>
         <v xml:space="preserve">ejecucion real detalle presupuesto </v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="91">
         <f>'objeto de dominio'!B10</f>
         <v>10</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4700,10 +6055,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -4712,8 +6067,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -4754,8 +6109,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6FDFF6-45F8-457D-B793-E39960FE4480}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2965285-6401-4B64-BC72-4ABFD8289385}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4771,12 +6126,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4841,17 +6196,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{91CF9826-6217-40BC-8187-6AC85055F51E}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{AB0DAAAB-9F2D-40FA-85CC-57A52F37B945}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{C2E640E3-78C4-48B3-BD68-FF58D46D6F42}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{80CCAF04-478E-4330-8373-3604023A87FD}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{4174B3E3-74C2-4817-A8BC-1A9E616048ED}"/>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{ECCCA0FD-DC49-4519-A9E0-3F5DC50282A3}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{8A5FE58F-363E-4451-B053-80D643247C07}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2496F028-8783-4642-8937-685A8DEE285B}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{CF13BB1D-DD6C-49D0-82B8-63E18986D348}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2F8DF9FC-71A4-4006-9235-319F4AB60DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED38ED1B-8678-4759-90CB-CD19A72372A4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6B5450D-99B7-49B7-B893-B38C8F82B0F8}">
           <x14:formula1>
             <xm:f>valores!$D$2:$D$3</xm:f>
           </x14:formula1>
@@ -4863,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F9490C-3834-491D-87CE-13E39A4C1D87}">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -4893,72 +6248,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A11</f>
         <v>mes</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>mes con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5090,10 +6445,10 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -5102,8 +6457,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="17" t="s">
         <v>48</v>
       </c>
@@ -5126,8 +6481,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04BD5C-05CC-47FE-9E4C-FC156E28E596}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6FDFF6-45F8-457D-B793-E39960FE4480}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5143,12 +6498,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5213,17 +6568,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{43B02514-9161-49A8-9A07-2B37246B5B02}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{FE22FCDC-06AB-45D8-AC06-FA6ECF481E76}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{ACC72B7D-F0EF-45AC-A7F9-581ECD3848E8}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{9D25B7FE-5099-4767-BBCA-C3E002B95985}"/>
-    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8DC98AFB-85B9-4D17-9D51-C312F2D0C1F5}"/>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{91CF9826-6217-40BC-8187-6AC85055F51E}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{AB0DAAAB-9F2D-40FA-85CC-57A52F37B945}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{C2E640E3-78C4-48B3-BD68-FF58D46D6F42}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{80CCAF04-478E-4330-8373-3604023A87FD}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{4174B3E3-74C2-4817-A8BC-1A9E616048ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F97824C7-DA8F-4F22-924C-A1F16471579E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED38ED1B-8678-4759-90CB-CD19A72372A4}">
           <x14:formula1>
             <xm:f>valores!$D$2:$D$3</xm:f>
           </x14:formula1>
@@ -5235,7 +6590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440EFD7A-2F1B-4A3B-B386-450231E811EE}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -5265,72 +6620,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A12</f>
         <v xml:space="preserve">tipo detalle presupuesto </v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="91">
         <f>'objeto de dominio'!B12</f>
         <v>12</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5587,10 +6942,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="102" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5599,8 +6954,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5641,6 +6996,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04BD5C-05CC-47FE-9E4C-FC156E28E596}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="str">
+        <f>'tipo rubro'!A6</f>
+        <v>Identificador</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>'tipo rubro'!A7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>'tipo rubro'!A8</f>
+        <v xml:space="preserve">Descripcion </v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>'tipo rubro'!A9</f>
+        <v xml:space="preserve">Estado </v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{43B02514-9161-49A8-9A07-2B37246B5B02}"/>
+    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{FE22FCDC-06AB-45D8-AC06-FA6ECF481E76}"/>
+    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{ACC72B7D-F0EF-45AC-A7F9-581ECD3848E8}"/>
+    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{9D25B7FE-5099-4767-BBCA-C3E002B95985}"/>
+    <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8DC98AFB-85B9-4D17-9D51-C312F2D0C1F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F97824C7-DA8F-4F22-924C-A1F16471579E}">
+          <x14:formula1>
+            <xm:f>valores!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F2D8E9-4CD5-4506-B21F-D4D4C753A1EE}">
   <dimension ref="A1:D15"/>
@@ -5668,37 +7132,37 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
         <v>Alfanumerico</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B7" si="0">PROPER(A3)</f>
+        <f t="shared" ref="B3:B6" si="0">PROPER(A3)</f>
         <v>Entero</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -5707,7 +7171,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -5716,7 +7180,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -5725,7 +7189,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B7" t="str">
         <f>PROPER(A7)</f>
@@ -5778,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,72 +7273,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>tipo rubro</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B2</f>
         <v xml:space="preserve">entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertemece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser el ingreso, el cual indica el dinero que recibio </v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -5897,52 +7361,52 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="56" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="31" t="str">
@@ -5966,12 +7430,12 @@
         <v xml:space="preserve">consultar tipo rubro </v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C6" s="42">
         <v>36</v>
@@ -5986,49 +7450,49 @@
         <v>22</v>
       </c>
       <c r="I6" s="42"/>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="57" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>40</v>
+        <v>162</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>147</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
@@ -6043,49 +7507,49 @@
         <v>23</v>
       </c>
       <c r="I7" s="42"/>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="57" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>39</v>
+        <v>163</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="Q7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" s="32" t="s">
+      <c r="T7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="T7" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C8" s="42">
         <v>1</v>
@@ -6102,49 +7566,49 @@
       <c r="I8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="57" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>178</v>
       </c>
       <c r="Q8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="32" t="s">
+      <c r="T8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="T8" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -6157,37 +7621,37 @@
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>41</v>
+        <v>163</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>179</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6257,7 +7721,7 @@
       <c r="B13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="60" t="str">
+      <c r="C13" s="58" t="str">
         <f>A7</f>
         <v>Nombre</v>
       </c>
@@ -6276,10 +7740,10 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="93" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -6300,8 +7764,8 @@
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6356,193 +7820,193 @@
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="84"/>
+      <c r="A18" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="76"/>
       <c r="M18" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="83"/>
+      <c r="A19" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="75"/>
       <c r="J19" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="85" t="str">
+        <v>115</v>
+      </c>
+      <c r="K19" s="77" t="str">
         <f>$A$28</f>
         <v>TR-P-1</v>
       </c>
-      <c r="L19" s="85"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="91"/>
-      <c r="J20" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="85" t="str">
+      <c r="A20" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="83"/>
+      <c r="J20" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="77" t="str">
         <f>$A$29</f>
         <v>TR-P-2</v>
       </c>
-      <c r="L20" s="85"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="86" t="str">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="78" t="str">
         <f>$A$30</f>
         <v>TR-P-3</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="83"/>
+      <c r="A22" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="75"/>
       <c r="J22" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
+        <v>115</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="83"/>
+      <c r="A23" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="75"/>
       <c r="J23" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
+        <v>115</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="83"/>
+      <c r="A24" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="75"/>
       <c r="J24" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
+        <v>116</v>
+      </c>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
@@ -6585,14 +8049,14 @@
       <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -6607,14 +8071,14 @@
       <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -6629,14 +8093,14 @@
       <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -6651,14 +8115,14 @@
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -6845,12 +8309,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6865,58 +8329,58 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="str">
+      <c r="A2" s="69" t="str">
         <f>'tipo rubro'!A6</f>
         <v>Identificador</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="69" t="str">
         <f>'tipo rubro'!A7</f>
         <v>Nombre</v>
       </c>
-      <c r="C2" s="101" t="str">
+      <c r="C2" s="69" t="str">
         <f>'tipo rubro'!A8</f>
         <v xml:space="preserve">Descripcion </v>
       </c>
-      <c r="D2" s="101" t="str">
+      <c r="D2" s="69" t="str">
         <f>'tipo rubro'!A9</f>
         <v xml:space="preserve">Estado </v>
       </c>
-      <c r="E2" s="99" t="s">
-        <v>157</v>
+      <c r="E2" s="67" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="102">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="100" t="str">
+      <c r="E3" s="68" t="str">
         <f>+B3</f>
         <v>ingreso</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="100" t="str">
+      <c r="E4" s="68" t="str">
         <f>+B4</f>
         <v>gastos</v>
       </c>
@@ -6952,8 +8416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DED06-BCF9-4CF0-8785-A4BC39484F95}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6983,24 +8447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -7013,24 +8477,24 @@
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="91" t="str">
         <f>'objeto de dominio'!A3</f>
         <v xml:space="preserve">rubro </v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
@@ -7043,24 +8507,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B3</f>
         <v xml:space="preserve">el título o rótulo de una cosa, a través del cual se agrupan </v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -7069,15 +8533,15 @@
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -7143,34 +8607,34 @@
       <c r="P5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="50" t="str">
+      <c r="Q5" s="49" t="str">
         <f>$A$21</f>
         <v>crear rubro</v>
       </c>
-      <c r="R5" s="50" t="str">
+      <c r="R5" s="49" t="str">
         <f>$A$22</f>
         <v xml:space="preserve">cambiar estado rubro </v>
       </c>
-      <c r="S5" s="50" t="str">
+      <c r="S5" s="49" t="str">
         <f>$A$23</f>
         <v>consultar rubro</v>
       </c>
-      <c r="T5" s="50" t="str">
+      <c r="T5" s="49" t="str">
         <f>$A$24</f>
         <v xml:space="preserve">modificar rubro </v>
       </c>
-      <c r="U5" s="50" t="str">
+      <c r="U5" s="49" t="str">
         <f>$A$25</f>
         <v xml:space="preserve">eliminar rubro  </v>
       </c>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C6" s="40">
         <v>36</v>
@@ -7188,47 +8652,47 @@
       <c r="J6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="S6" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="52" t="s">
-        <v>103</v>
+      <c r="K6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="40">
         <v>1</v>
@@ -7246,47 +8710,47 @@
       <c r="J7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="52" t="s">
+      <c r="K7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="T7" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="U7" s="52" t="s">
-        <v>106</v>
+      <c r="U7" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C8" s="40">
         <v>1</v>
@@ -7306,47 +8770,47 @@
       <c r="J8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q8" s="52" t="s">
+      <c r="K8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>106</v>
+      <c r="U8" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C9" s="40">
         <v>1</v>
@@ -7358,46 +8822,46 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="52" t="s">
+      <c r="K9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="S9" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="T9" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="U9" s="52" t="s">
-        <v>106</v>
+      <c r="U9" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="V9" s="11"/>
     </row>
@@ -7406,7 +8870,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>4</v>
@@ -7426,38 +8890,38 @@
       <c r="J10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="52" t="s">
+      <c r="K10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>106</v>
+      <c r="U10" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="V10" s="11"/>
     </row>
@@ -7466,7 +8930,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -7477,39 +8941,41 @@
       <c r="I11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="S11" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>106</v>
+      <c r="J11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="V11" s="11"/>
     </row>
@@ -7538,7 +9004,7 @@
       <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -7554,21 +9020,21 @@
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
       <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="37"/>
@@ -7592,15 +9058,15 @@
       <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="56" t="str">
+      <c r="B15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="54" t="str">
         <f>A6</f>
-        <v>identificador</v>
+        <v>Identificador</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -7623,15 +9089,15 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="55" t="str">
+      <c r="B16" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="53" t="str">
         <f>A7</f>
-        <v>nombre</v>
+        <v>Nombre</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -7654,9 +9120,9 @@
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="55" t="str">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="53" t="str">
         <f>A10</f>
         <v>tipo rubro</v>
       </c>
@@ -7729,21 +9195,21 @@
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="71"/>
+      <c r="A20" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="96"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -7759,21 +9225,21 @@
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="70"/>
+      <c r="A21" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="94"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -7789,21 +9255,21 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="70"/>
+      <c r="A22" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="94"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
@@ -7819,21 +9285,21 @@
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="70"/>
+      <c r="A23" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="94"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -7849,21 +9315,21 @@
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="70"/>
+      <c r="A24" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="94"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -7879,21 +9345,21 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="70"/>
+      <c r="A25" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="94"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -8097,12 +9563,18 @@
       <c r="U33" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C20:G20"/>
@@ -8116,15 +9588,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{AA9518DE-367D-4192-9757-ACB4D9BE99A3}"/>
     <hyperlink ref="A4" location="'rubro datos simulados'!A1" display="datos simulados" xr:uid="{C828E299-2235-4A83-82A1-4FCCCF1F6FD6}"/>
+    <hyperlink ref="A4:G4" location="'rubro datos simulados'!A1" display="Datos simulados" xr:uid="{29C14F0F-0F5F-4A7C-BFE4-91E282ABC9BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8135,7 +9603,7 @@
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K11:O12</xm:sqref>
+          <xm:sqref>K6:O12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E33D6706-0A57-4137-BC00-8196A78D35D4}">
           <x14:formula1>
@@ -8160,7 +9628,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8171,11 +9639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -8192,19 +9660,19 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f>rubro!$A$6</f>
-        <v>identificador</v>
+        <v>Identificador</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>rubro!$A$7</f>
-        <v>nombre</v>
+        <v>Nombre</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>rubro!$A$8</f>
-        <v xml:space="preserve">descripcion </v>
+        <v xml:space="preserve">Descripcion </v>
       </c>
       <c r="D2" s="3" t="str">
         <f>rubro!$A$9</f>
-        <v>cantidad</v>
+        <v>Cantidad</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>rubro!$A$10</f>
@@ -8220,10 +9688,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2000000</v>
@@ -8240,10 +9708,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>700000</v>
@@ -8293,17 +9761,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35395E7B-5341-4AFE-9AA9-7F697B128173}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="P4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
@@ -8316,86 +9784,98 @@
     <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="5"/>
+    <col min="16" max="16" width="74" style="5" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="90" t="str">
         <f>'objeto de dominio'!A4</f>
         <v xml:space="preserve">compromiso financiero </v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="91" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>lista de responsabilidades financieras con toda su informacio relacionada</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
@@ -8444,13 +9924,28 @@
       <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="R5" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="T5" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C6" s="21">
         <v>36</v>
@@ -8469,30 +9964,46 @@
         <v>29</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="P6" s="71" t="str">
+        <f>+'[1]Tipo Compromiso Financiero'!P6</f>
+        <v>Atributo que representa el identificador de un tipo de compromiso financiero asegurando que sea único</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -8511,30 +10022,45 @@
         <v>29</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S7" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -8555,133 +10081,203 @@
         <v>29</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T8" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>50</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="22"/>
       <c r="J9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T9" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="I10" s="22"/>
       <c r="J10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P10" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S10" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q11" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="R11" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="S11" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
@@ -8699,7 +10295,7 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -8717,7 +10313,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -8729,25 +10325,25 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="18" t="str">
+        <v>136</v>
+      </c>
+      <c r="C15" s="118" t="str">
         <f>A7</f>
         <v>Nombre</v>
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>46</v>
+      <c r="B16" s="115" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>47</v>
@@ -8755,135 +10351,149 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="17"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="96"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="72" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="72" t="s">
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="70"/>
+      <c r="I24" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
     <hyperlink ref="A4" location="'compromiso fina datos simulados'!A1" display="datos simulados" xr:uid="{9A6AFD02-7ADF-4429-B7C2-3D417AF7EFE8}"/>
+    <hyperlink ref="A4:I4" location="'compromiso fina datos simulados'!A1" display="datos simulados" xr:uid="{97A1269E-E017-4FB3-9F33-DE65EA9815EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5812E8F5-B5C7-42D1-AEC6-E1A3EACF5231}">
           <x14:formula1>
             <xm:f>valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7517F8D7-9EFE-4335-A55A-9EE27B087D5A}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8893,27 +10503,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF739F-67E3-4204-8A0A-2335A5A0DE4E}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -8929,7 +10541,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
+        <f>'compromiso financiero '!$A$6</f>
         <v>Identificador</v>
       </c>
       <c r="B2" s="3" t="str">
@@ -8938,69 +10550,77 @@
       </c>
       <c r="C2" s="3" t="str">
         <f>'compromiso financiero '!$A$8</f>
-        <v xml:space="preserve">descripcion </v>
+        <v xml:space="preserve">Descripcion </v>
       </c>
       <c r="D2" s="3" t="str">
         <f>'compromiso financiero '!$A$9</f>
-        <v>tipo compromiso financiero</v>
+        <v>Tipo compromiso financiero</v>
       </c>
       <c r="E2" s="3" t="str">
+        <f>'compromiso financiero '!$A$10</f>
+        <v>Fecha de vencimiento</v>
+      </c>
+      <c r="F2" s="3" t="str">
         <f>'compromiso financiero '!$A$11</f>
-        <v xml:space="preserve">valor </v>
+        <v xml:space="preserve">Valor </v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="119">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
+      <c r="B3" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="121">
+        <v>45291</v>
+      </c>
+      <c r="F3" s="120">
+        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="119">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B4" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="121">
+        <v>44942</v>
+      </c>
+      <c r="F4" s="120">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{25F866B8-344C-432E-B61D-3EBE992D20F4}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{7B02573B-7E1C-4759-8E6C-B2DECB89A039}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{D13E785B-A65E-47E6-B250-C642A4A7C96F}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{53DBEF74-BE85-4816-B32B-E6F626CB0DB7}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D12E91A-9910-48D6-9417-A38EF7D62832}"/>
-    <hyperlink ref="E2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{84274832-DB03-4D60-8E66-A957F4426B5B}"/>
+    <hyperlink ref="E2" location="'compromiso financiero '!A9" display="'compromiso financiero '!A9" xr:uid="{84274832-DB03-4D60-8E66-A957F4426B5B}"/>
+    <hyperlink ref="A2:D2" location="'compromiso financiero '!A9" display="'compromiso financiero '!A9" xr:uid="{D7070169-70D6-4AF3-9D45-C53BA6342EB2}"/>
+    <hyperlink ref="F2" location="'compromiso financiero '!A9" display="'compromiso financiero '!A9" xr:uid="{9B06C243-43EB-4E82-8ACE-C13E8D8C5059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BECC26B2-7D4D-47FA-9EA8-D711A6C99780}">
-          <x14:formula1>
-            <xm:f>valores!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Clase/Modelo de dominio/doo/doo.xlsx
+++ b/Clase/Modelo de dominio/doo/doo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Clase\Modelo de dominio\doo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1B1A65-35E1-4ABF-89C9-4A94C57C57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D68882-BB36-4968-A6C9-A401F85146B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="21" activeTab="24" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="13" activeTab="16" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="278">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -1276,7 +1276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1470,98 +1470,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1583,24 +1493,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1623,33 +1515,144 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1829,26 +1832,9 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="4">
-          <cell r="A4">
-            <v>2023</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>JUAN IGNACIO</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>JUAN ESTEBAN</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
@@ -2362,85 +2348,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>persona</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>usuario con su informacion</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2492,43 +2478,43 @@
       <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="T5" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="U5" s="89" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="76" t="s">
         <v>180</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="77">
         <v>36</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="77">
         <v>36</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="21" t="s">
         <v>162</v>
       </c>
@@ -2547,43 +2533,43 @@
       <c r="P6" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="77" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="79">
         <v>36</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="79">
         <v>36</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="21" t="s">
         <v>163</v>
       </c>
@@ -2599,46 +2585,46 @@
       <c r="O7" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="107" t="s">
+      <c r="Q7" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S7" s="107" t="s">
+      <c r="S7" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T7" s="107" t="s">
+      <c r="T7" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U7" s="107" t="s">
+      <c r="U7" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="79" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="79">
         <v>1</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="79">
         <v>50</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110" t="s">
+      <c r="I8" s="79"/>
+      <c r="J8" s="80" t="s">
         <v>188</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -2659,43 +2645,43 @@
       <c r="P8" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="S8" s="107" t="s">
+      <c r="S8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T8" s="107" t="s">
+      <c r="T8" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="79" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="79">
         <v>50</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="79">
         <v>50</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109" t="s">
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="21" t="s">
         <v>163</v>
       </c>
@@ -2711,46 +2697,46 @@
       <c r="O9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S9" s="107" t="s">
+      <c r="S9" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T9" s="107" t="s">
+      <c r="T9" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="79" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="79">
         <v>36</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="79">
         <v>36</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="21" t="s">
         <v>163</v>
       </c>
@@ -2766,42 +2752,42 @@
       <c r="O10" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="109" t="s">
+      <c r="P10" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="Q10" s="107" t="s">
+      <c r="Q10" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R10" s="107" t="s">
+      <c r="R10" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S10" s="107" t="s">
+      <c r="S10" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T10" s="107" t="s">
+      <c r="T10" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U10" s="107" t="s">
+      <c r="U10" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="77" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="107"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="21" t="s">
         <v>163</v>
       </c>
@@ -2811,7 +2797,7 @@
       <c r="M11" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="107" t="s">
+      <c r="N11" s="77" t="s">
         <v>183</v>
       </c>
       <c r="O11" s="21" t="s">
@@ -2820,19 +2806,19 @@
       <c r="P11" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="Q11" s="107" t="s">
+      <c r="Q11" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="107" t="s">
+      <c r="T11" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U11" s="107" t="s">
+      <c r="U11" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2870,10 +2856,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2882,100 +2868,112 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="96"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="94" t="s">
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="94" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="94" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:I23"/>
@@ -2985,18 +2983,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
@@ -3043,11 +3029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -3181,72 +3167,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A6</f>
         <v xml:space="preserve">presupuesto </v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Conjunto de los gastos e ingresos previstos para un determinado período de tiempo</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3304,19 +3290,19 @@
       <c r="P5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="T5" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="U5" s="89" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3358,22 +3344,22 @@
       <c r="O6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="77" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3415,22 +3401,22 @@
       <c r="O7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="Q7" s="107" t="s">
+      <c r="Q7" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S7" s="107" t="s">
+      <c r="S7" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T7" s="107" t="s">
+      <c r="T7" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U7" s="107" t="s">
+      <c r="U7" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3474,20 +3460,20 @@
       <c r="O8" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="107" t="s">
+      <c r="P8" s="88"/>
+      <c r="Q8" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="S8" s="107" t="s">
+      <c r="S8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T8" s="107" t="s">
+      <c r="T8" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3528,19 +3514,19 @@
       <c r="P9" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S9" s="107" t="s">
+      <c r="S9" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T9" s="107" t="s">
+      <c r="T9" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3578,10 +3564,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3590,100 +3576,111 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96" t="s">
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="96"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="94" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="94"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="94" t="s">
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I19" s="94"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="94" t="s">
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:I21"/>
@@ -3693,17 +3690,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{57113C4D-9B2D-48CE-AE84-2C0879BE2872}"/>
@@ -3737,7 +3723,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3749,12 +3735,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3787,32 +3773,28 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="119">
+      <c r="A3" s="83">
         <v>2</v>
       </c>
-      <c r="B3" s="104">
-        <f>+'[1]Año-Dato Simulado'!$A$4</f>
-        <v>2023</v>
-      </c>
-      <c r="C3" s="104" t="str">
-        <f>+'[1]Persona-Dato Simulado'!$D3</f>
-        <v>JUAN IGNACIO</v>
-      </c>
-      <c r="D3" s="104"/>
+      <c r="B3" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74">
+        <v>2022</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="119">
+      <c r="A4" s="83">
         <v>3</v>
       </c>
-      <c r="B4" s="104">
-        <f>+'[1]Año-Dato Simulado'!$A$4</f>
-        <v>2023</v>
-      </c>
-      <c r="C4" s="104" t="str">
-        <f>+'[1]Persona-Dato Simulado'!$D4</f>
-        <v>JUAN ESTEBAN</v>
-      </c>
-      <c r="D4" s="104"/>
+      <c r="B4" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74">
+        <v>2022</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3826,6 +3808,24 @@
     <hyperlink ref="B2" location="'presupuesto '!A8" display="'presupuesto '!A8" xr:uid="{FEE52EA3-D748-4862-BB58-4E52E06BAA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF050DB3-E5FF-4056-A1D2-A6A111785EB5}">
+          <x14:formula1>
+            <xm:f>'persona datos simulados'!$B$3:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C578629-FF75-4002-A9C7-E27C370C5545}">
+          <x14:formula1>
+            <xm:f>'año datos simulados'!$A$3:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3834,7 +3834,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,72 +3864,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>año</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>año con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3987,19 +3987,19 @@
       <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="T5" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="U5" s="89" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4044,19 +4044,19 @@
       <c r="P6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="77" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4091,92 +4091,101 @@
       <c r="H10" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="96"/>
+      <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="94" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="94" t="s">
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="94" t="s">
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="94"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="94" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:I16"/>
@@ -4186,15 +4195,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'año datos simulados'!A1" display="datos simulados" xr:uid="{3544F9ED-80DF-45D5-A032-80ECB60EBB03}"/>
@@ -4225,27 +4225,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E3B0D4-F4A7-4954-BDBF-726FE6967B15}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -4255,80 +4252,39 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <f>año!$A$6</f>
+        <v xml:space="preserve">Año </v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{10B5FC35-9514-4AE3-8478-572BC2A210C6}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{BBB51878-BFA8-4624-942C-3C7A30B67A31}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{2F00E0C3-BE65-494E-B4EB-3DFC00C781AC}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{5E8DAC24-FDB8-420A-A461-FB6DEF9A1D12}"/>
+    <hyperlink ref="A2" location="año!A6" display="año!A6" xr:uid="{10B5FC35-9514-4AE3-8478-572BC2A210C6}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{2C8089F9-C25C-4D23-884C-5570FC17FC18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0ACFCF2-C3A2-44FC-9CF2-910EA3C9ADC6}">
-          <x14:formula1>
-            <xm:f>valores!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4336,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:U11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,72 +4323,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>detalles presupuesto</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="95">
         <f>'objeto de dominio'!B8</f>
         <v>8</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4490,418 +4446,418 @@
       <c r="P5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="T5" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="U5" s="89" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="77" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="77">
         <v>36</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="77">
         <v>36</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="107" t="s">
+      <c r="N6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O6" s="107" t="s">
+      <c r="O6" s="77" t="s">
         <v>182</v>
       </c>
       <c r="P6" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="77" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="77">
         <v>36</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="77">
         <v>36</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="107" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="107" t="s">
+      <c r="L7" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="107" t="s">
+      <c r="O7" s="77" t="s">
         <v>182</v>
       </c>
       <c r="P7" s="71" t="str">
         <f>+[1]Presupuesto!P6</f>
         <v>Atributo que representa el identificador de un presupuesto asegurando que sea único</v>
       </c>
-      <c r="Q7" s="107" t="s">
+      <c r="Q7" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S7" s="107" t="s">
+      <c r="S7" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T7" s="107" t="s">
+      <c r="T7" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U7" s="107" t="s">
+      <c r="U7" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="91" t="s">
         <v>266</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="77">
         <v>36</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="77">
         <v>36</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107" t="s">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="107" t="s">
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="77" t="s">
         <v>182</v>
       </c>
       <c r="P8" s="71" t="str">
         <f>+'[1]Tipo Detalle Presupuesto'!P6</f>
         <v>Atributo que representa el identificador de un tipo de detalle de presupuesto asegurando que sea único</v>
       </c>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="S8" s="107" t="s">
+      <c r="S8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T8" s="107" t="s">
+      <c r="T8" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="81" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="77">
         <v>36</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="77">
         <v>36</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="107" t="s">
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="107" t="s">
+      <c r="L9" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M9" s="107" t="s">
+      <c r="M9" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="107" t="s">
+      <c r="N9" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="107" t="s">
+      <c r="O9" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="107" t="str">
+      <c r="P9" s="77" t="str">
         <f>+[1]Rubro!P7</f>
         <v>Atributo que representa el identificador de un rubro dentro de un tipo de rubro</v>
       </c>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S9" s="107" t="s">
+      <c r="S9" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T9" s="107" t="s">
+      <c r="T9" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="81" t="s">
         <v>268</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="77">
         <v>2</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="77">
         <v>2</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107" t="s">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="107" t="s">
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L10" s="107" t="s">
+      <c r="L10" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N10" s="107" t="s">
+      <c r="N10" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="107" t="s">
+      <c r="O10" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="P10" s="107" t="str">
+      <c r="P10" s="77" t="str">
         <f>+[1]Mes!$P6</f>
         <v xml:space="preserve">Atributo que representa el número del mes </v>
       </c>
-      <c r="Q10" s="107" t="s">
+      <c r="Q10" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R10" s="107" t="s">
+      <c r="R10" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S10" s="107" t="s">
+      <c r="S10" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T10" s="107" t="s">
+      <c r="T10" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U10" s="107" t="s">
+      <c r="U10" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="77" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="77">
         <v>36</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="77">
         <v>36</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107" t="s">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N11" s="107" t="s">
+      <c r="N11" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="O11" s="107" t="s">
+      <c r="O11" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="P11" s="107" t="s">
+      <c r="P11" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="Q11" s="107" t="s">
+      <c r="Q11" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="107" t="s">
+      <c r="T11" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U11" s="107" t="s">
+      <c r="U11" s="77" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="92" t="s">
         <v>275</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="105" t="str">
+      <c r="C15" s="75" t="str">
         <f>+A8</f>
         <v>Tipo Detalle Presupuesto</v>
       </c>
@@ -4909,109 +4865,113 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="105" t="str">
+      <c r="B16" s="136"/>
+      <c r="C16" s="75" t="str">
         <f t="shared" ref="C16:C17" si="0">+A9</f>
         <v>Rubro</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="105" t="str">
+      <c r="A17" s="134"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>Mes</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="96"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="94" t="s">
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="94" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="94" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:I23"/>
@@ -5028,10 +4988,6 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D650644-FFEC-4B37-9193-FDFBE7D6B5DF}"/>
@@ -5058,25 +5014,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBAB2E-38B0-4A92-9C59-FA8DBF34BEC1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5091,21 +5049,29 @@
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>'tipo rubro'!A6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <f>'tipo rubro'!A7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>'tipo rubro'!A8</f>
-        <v xml:space="preserve">Descripcion </v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>'tipo rubro'!A9</f>
-        <v xml:space="preserve">Estado </v>
+      <c r="A2" s="4" t="str">
+        <f>'detalles presupuesto'!$A$6</f>
+        <v>Codigo Detalle Presupuesto</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>'detalles presupuesto'!$A$7</f>
+        <v>Presupuesto</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>'detalles presupuesto'!$A$8</f>
+        <v>Tipo Detalle Presupuesto</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>'detalles presupuesto'!$A$9</f>
+        <v>Rubro</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>'detalles presupuesto'!$A$10</f>
+        <v>Mes</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>'detalles presupuesto'!$A$11</f>
+        <v>Valor</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5141,11 +5107,13 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'tipo rubro'!A6" display="'tipo rubro'!A6" xr:uid="{22176BED-1F3F-4BBF-B794-443FB0FD746D}"/>
-    <hyperlink ref="B2" location="'tipo rubro'!A7" display="'tipo rubro'!A7" xr:uid="{29106ED1-1D70-42D9-8BD0-1E7C60A84F5A}"/>
-    <hyperlink ref="C2" location="'tipo rubro'!A8" display="'tipo rubro'!A8" xr:uid="{FE0A8D83-3348-4E26-9297-68F7CA9AF28D}"/>
-    <hyperlink ref="D2" location="'tipo rubro'!A9" display="'tipo rubro'!A9" xr:uid="{7BF888E0-60B9-4296-BA8F-1C30CA5622B0}"/>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{E3928104-393F-4ED5-A221-08AD34A06CD3}"/>
+    <hyperlink ref="F2" location="'detalles presupuesto'!A7" display="'detalles presupuesto'!A7" xr:uid="{58EACB18-CDAD-471B-A3BD-AFBA13D1D4AB}"/>
+    <hyperlink ref="E2" location="'detalles presupuesto'!A1" display="'detalles presupuesto'!A1" xr:uid="{5FDD84CE-13C7-4866-A7CC-AA2765ACC93E}"/>
+    <hyperlink ref="D2" location="'detalles presupuesto'!A1" display="'detalles presupuesto'!A1" xr:uid="{C749B90C-AE06-4101-92B8-894B37D58973}"/>
+    <hyperlink ref="C2" location="'detalles presupuesto'!A1" display="'detalles presupuesto'!A1" xr:uid="{20C5C4CB-D269-4F81-8C54-1C0DF868DC09}"/>
+    <hyperlink ref="B2" location="'detalles presupuesto'!A1" display="'detalles presupuesto'!A1" xr:uid="{279E783E-1477-4605-9653-A632FE8801E3}"/>
+    <hyperlink ref="A2" location="'detalles presupuesto'!A1" display="'detalles presupuesto'!A1" xr:uid="{D95A2B2B-17C5-4089-AED3-8819899A0355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5168,7 +5136,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,72 +5161,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A9</f>
         <v xml:space="preserve">historico detalle presupuesto </v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="95">
         <f>'objeto de dominio'!B9</f>
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5317,12 +5285,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C6" s="8">
         <v>36</v>
@@ -5359,12 +5327,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -5406,7 +5374,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -5450,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5515,10 +5483,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5527,8 +5495,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5586,12 +5554,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5708,7 +5676,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,72 +5701,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A10</f>
         <v xml:space="preserve">ejecucion real detalle presupuesto </v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="95">
         <f>'objeto de dominio'!B10</f>
         <v>10</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5857,12 +5825,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C6" s="8">
         <v>36</v>
@@ -5899,12 +5867,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -5946,7 +5914,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -5990,7 +5958,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6055,10 +6023,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -6067,8 +6035,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -6126,12 +6094,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6248,72 +6216,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A11</f>
         <v>mes</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>mes con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6445,10 +6413,10 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -6457,8 +6425,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="17" t="s">
         <v>48</v>
       </c>
@@ -6498,12 +6466,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6620,72 +6588,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A12</f>
         <v xml:space="preserve">tipo detalle presupuesto </v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="95">
         <f>'objeto de dominio'!B12</f>
         <v>12</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6942,10 +6910,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="129" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -6954,8 +6922,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
@@ -7000,8 +6968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04BD5C-05CC-47FE-9E4C-FC156E28E596}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7013,12 +6981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -7242,8 +7210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,72 +7241,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>tipo rubro</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B2</f>
         <v xml:space="preserve">entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertemece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser el ingreso, el cual indica el dinero que recibio </v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -7740,10 +7708,10 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="97" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -7764,8 +7732,8 @@
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="48" t="s">
         <v>48</v>
       </c>
@@ -7820,28 +7788,28 @@
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="99"/>
       <c r="J18" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="34" t="s">
         <v>124</v>
       </c>
@@ -7850,29 +7818,29 @@
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="75"/>
+      <c r="I19" s="98"/>
       <c r="J19" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="77" t="str">
+      <c r="K19" s="107" t="str">
         <f>$A$28</f>
         <v>TR-P-1</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="34" t="s">
         <v>125</v>
       </c>
@@ -7881,29 +7849,29 @@
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="82" t="s">
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="80" t="s">
+      <c r="I20" s="101"/>
+      <c r="J20" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="77" t="str">
+      <c r="K20" s="107" t="str">
         <f>$A$29</f>
         <v>TR-P-2</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="34" t="s">
         <v>126</v>
       </c>
@@ -7912,21 +7880,21 @@
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="78" t="str">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="108" t="str">
         <f>$A$30</f>
         <v>TR-P-3</v>
       </c>
-      <c r="L21" s="79"/>
+      <c r="L21" s="109"/>
       <c r="M21" s="34" t="s">
         <v>127</v>
       </c>
@@ -7935,78 +7903,78 @@
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75" t="s">
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="75"/>
+      <c r="I22" s="98"/>
       <c r="J22" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="75"/>
+      <c r="I23" s="98"/>
       <c r="J23" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75" t="s">
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="75"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
@@ -8052,11 +8020,11 @@
       <c r="A27" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -8074,11 +8042,11 @@
       <c r="A28" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -8096,11 +8064,11 @@
       <c r="A29" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -8118,11 +8086,11 @@
       <c r="A30" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -8228,11 +8196,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C20:G21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -8242,27 +8226,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{D5AC8310-2B3B-4FE9-B549-F82D2DC4804B}"/>
@@ -8309,12 +8277,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -8447,24 +8415,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -8477,24 +8445,24 @@
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="95" t="str">
         <f>'objeto de dominio'!A3</f>
         <v xml:space="preserve">rubro </v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
@@ -8507,24 +8475,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B3</f>
         <v xml:space="preserve">el título o rótulo de una cosa, a través del cual se agrupan </v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -8533,15 +8501,15 @@
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -9089,10 +9057,10 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="97" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="53" t="str">
@@ -9120,8 +9088,8 @@
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="53" t="str">
         <f>A10</f>
         <v>tipo rubro</v>
@@ -9195,21 +9163,21 @@
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96" t="s">
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="96"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -9225,21 +9193,21 @@
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -9255,21 +9223,21 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="94" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
@@ -9285,21 +9253,21 @@
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="94" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -9315,21 +9283,21 @@
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="94" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="114"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -9345,21 +9313,21 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="97" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="94" t="s">
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="114"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -9564,17 +9532,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A4:G4"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C20:G20"/>
@@ -9588,6 +9545,17 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{AA9518DE-367D-4192-9757-ACB4D9BE99A3}"/>
@@ -9639,11 +9607,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -9794,85 +9762,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="94" t="str">
         <f>'objeto de dominio'!A4</f>
         <v xml:space="preserve">compromiso financiero </v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="91" t="str">
+      <c r="B3" s="95" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>lista de responsabilidades financieras con toda su informacio relacionada</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -9924,19 +9892,19 @@
       <c r="P5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="125" t="s">
+      <c r="Q5" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="T5" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="U5" s="89" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9982,19 +9950,19 @@
         <f>+'[1]Tipo Compromiso Financiero'!P6</f>
         <v>Atributo que representa el identificador de un tipo de compromiso financiero asegurando que sea único</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="S6" s="107" t="s">
+      <c r="S6" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="107" t="s">
+      <c r="T6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="77" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10039,19 +10007,19 @@
       <c r="P7" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="107" t="s">
+      <c r="Q7" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S7" s="107" t="s">
+      <c r="S7" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T7" s="107" t="s">
+      <c r="T7" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U7" s="107" t="s">
+      <c r="U7" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10098,19 +10066,19 @@
       <c r="P8" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="S8" s="107" t="s">
+      <c r="S8" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T8" s="107" t="s">
+      <c r="T8" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10155,19 +10123,19 @@
       <c r="P9" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S9" s="107" t="s">
+      <c r="S9" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T9" s="107" t="s">
+      <c r="T9" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10208,19 +10176,19 @@
       <c r="P10" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="Q10" s="107" t="s">
+      <c r="Q10" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R10" s="107" t="s">
+      <c r="R10" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S10" s="107" t="s">
+      <c r="S10" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T10" s="107" t="s">
+      <c r="T10" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U10" s="107" t="s">
+      <c r="U10" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10261,19 +10229,19 @@
       <c r="P11" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="Q11" s="107" t="s">
+      <c r="Q11" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="107" t="s">
+      <c r="T11" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="U11" s="107" t="s">
+      <c r="U11" s="77" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10332,17 +10300,17 @@
       <c r="B15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="118" t="str">
+      <c r="C15" s="82" t="str">
         <f>A7</f>
         <v>Nombre</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="126" t="s">
         <v>210</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -10351,112 +10319,112 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="17"/>
       <c r="H18" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96" t="s">
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="96"/>
+      <c r="I20" s="115"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="94" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="94" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="94" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="94" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
@@ -10466,12 +10434,12 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
@@ -10520,12 +10488,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -10566,50 +10534,50 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="119">
+      <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="85">
         <v>45291</v>
       </c>
-      <c r="F3" s="120">
+      <c r="F3" s="84">
         <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="119">
+      <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="85">
         <v>44942</v>
       </c>
-      <c r="F4" s="120">
+      <c r="F4" s="84">
         <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
+      <c r="B7" s="86"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Clase/Modelo de dominio/doo/doo.xlsx
+++ b/Clase/Modelo de dominio/doo/doo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Clase\Modelo de dominio\doo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D68882-BB36-4968-A6C9-A401F85146B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B52A85-02EF-4FFD-86DB-529F0B3099CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="13" activeTab="16" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="15" activeTab="17" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="293">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -76,9 +76,6 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>tipo rubro</t>
-  </si>
-  <si>
     <t xml:space="preserve">valor inicial </t>
   </si>
   <si>
@@ -232,36 +229,9 @@
     <t>datos simulados</t>
   </si>
   <si>
-    <t xml:space="preserve">rubro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">compromiso financiero </t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presupuesto </t>
-  </si>
-  <si>
-    <t>año</t>
-  </si>
-  <si>
-    <t>detalles presupuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico detalle presupuesto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejecucion real detalle presupuesto </t>
-  </si>
-  <si>
     <t>mes</t>
   </si>
   <si>
-    <t xml:space="preserve">tipo detalle presupuesto </t>
-  </si>
-  <si>
     <t xml:space="preserve">el título o rótulo de una cosa, a través del cual se agrupan </t>
   </si>
   <si>
@@ -289,42 +259,9 @@
     <t>Responsabilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">crear tipo rubro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cambiar estado tipo rubro </t>
-  </si>
-  <si>
-    <t>modificar tipo rubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliminar tipo rubro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">consultar tipo rubro </t>
-  </si>
-  <si>
-    <t>crear rubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cambiar estado rubro </t>
-  </si>
-  <si>
-    <t>consultar rubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modificar rubro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliminar rubro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">no es posible tener mas de un mismo identificador  </t>
   </si>
   <si>
-    <t>no es posible que existan mas de un nombre con el mismo tipo rubro</t>
-  </si>
-  <si>
     <t>trabajo</t>
   </si>
   <si>
@@ -337,21 +274,12 @@
     <t>productos de alimentacion</t>
   </si>
   <si>
-    <t xml:space="preserve">comportamiento que permite registrar la informacion de un rubro </t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
-    <t xml:space="preserve">comportamiento que permite activar o desactivar la informacion de un rubro </t>
-  </si>
-  <si>
     <t>comportamiento que permite consultar la informacion de un rubro. Que cumpla con las condiciones recibidas</t>
   </si>
   <si>
-    <t xml:space="preserve">comportamiento que permite elimiar la informacion de un rubro </t>
-  </si>
-  <si>
     <t xml:space="preserve">comportamiento que permite registrar la informacion de un tipo de rubro </t>
   </si>
   <si>
@@ -364,9 +292,6 @@
     <t xml:space="preserve">comportamiento que permite elimiar la informacion de un tipo de rubro </t>
   </si>
   <si>
-    <t xml:space="preserve">comportamiento que permite modificar la informacion de un rubro </t>
-  </si>
-  <si>
     <t>requerido</t>
   </si>
   <si>
@@ -388,33 +313,12 @@
     <t>Entrada</t>
   </si>
   <si>
-    <t>tipo rubro{codigo,estado}</t>
-  </si>
-  <si>
-    <t>tipo rubro{codigo,nombre,descripcion,estado}</t>
-  </si>
-  <si>
-    <t>tipo rubro{codigo}</t>
-  </si>
-  <si>
-    <t>rubro{codigo,nombre,descripcion,estado}</t>
-  </si>
-  <si>
-    <t>rubro{codigo,estado}</t>
-  </si>
-  <si>
-    <t>rubro{codigo}</t>
-  </si>
-  <si>
     <t>Salida</t>
   </si>
   <si>
     <t>nada</t>
   </si>
   <si>
-    <t>tipo rubro[]</t>
-  </si>
-  <si>
     <t>Rreglas de negocio</t>
   </si>
   <si>
@@ -427,9 +331,6 @@
     <t>TR-P-2</t>
   </si>
   <si>
-    <t>se debe asegurar el tipo rubro con el identificador enviado</t>
-  </si>
-  <si>
     <t>TR-P-3</t>
   </si>
   <si>
@@ -508,18 +409,6 @@
     <t>Atributo que representa el identificador de un tipo de rubro asegurando que sea único</t>
   </si>
   <si>
-    <t>Atributo que representa el identificador de un rubro dentro de un tipo de rubro</t>
-  </si>
-  <si>
-    <t>Atributo que representa el nombre de un rubro determinado</t>
-  </si>
-  <si>
-    <t>Atributo que representa un detalle adicional que se deba dar respecto a un rubro determinado con el objetivo de que pueda ser comprendido mas facilmente</t>
-  </si>
-  <si>
-    <t>Atributo que indica si el rubro está activo o inactivo, lo que indica que pueda ser o no utilizado</t>
-  </si>
-  <si>
     <t>Llave</t>
   </si>
   <si>
@@ -610,9 +499,6 @@
     <t>formato de un identificador unico universal UUID</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -896,6 +782,165 @@
   </si>
   <si>
     <t>No es posible tener mas de un rubro en un mes con el mismmo tipo de detalle de presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de Rubro asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un Rubro dentro de un tipo de Rubro</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un Rubro determinado</t>
+  </si>
+  <si>
+    <t>Tipo Rubro</t>
+  </si>
+  <si>
+    <t>tipo Rubro</t>
+  </si>
+  <si>
+    <t>Atributo que representa un detalle adicional que se deba dar respecto a un Rubro determinado con el objetivo de que pueda ser comprendido mas facilmente</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el Rubro está activo o inactivo, lo que indica que pueda ser o no utilizado</t>
+  </si>
+  <si>
+    <t>no es posible que existan mas de un nombre con el mismo tipo Rubro</t>
+  </si>
+  <si>
+    <t>crear Rubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento que permite registrar la informacion de un Rubro </t>
+  </si>
+  <si>
+    <t>Rubro{codigo,nombre,descripcion,estado}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambiar estado Rubro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento que permite activar o desactivar la informacion de un Rubro </t>
+  </si>
+  <si>
+    <t>Rubro{codigo,estado}</t>
+  </si>
+  <si>
+    <t>consultar Rubro</t>
+  </si>
+  <si>
+    <t>comportamiento que permite consultar la informacion de un Rubro. Que cumpla con las condiciones recibidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modificar Rubro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento que permite modificar la informacion de un Rubro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminar Rubro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportamiento que permite elimiar la informacion de un Rubro </t>
+  </si>
+  <si>
+    <t>Rubro{codigo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear Tipo Rubro </t>
+  </si>
+  <si>
+    <t>Tipo Rubro{codigo,nombre,descripcion,estado}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambiar estado Tipo Rubro </t>
+  </si>
+  <si>
+    <t>Tipo Rubro{codigo,estado}</t>
+  </si>
+  <si>
+    <t>modificar Tipo Rubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminar Tipo Rubro </t>
+  </si>
+  <si>
+    <t>Tipo Rubro{codigo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultar Tipo Rubro </t>
+  </si>
+  <si>
+    <t>Tipo Rubro[]</t>
+  </si>
+  <si>
+    <t>se debe asegurar el Tipo Rubro con el identificador enviado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compromiso Financiero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto </t>
+  </si>
+  <si>
+    <t>Detalles Presupuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historico Detalle Presupuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecucion Real Detalle Presupuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Detalle Presupuesto </t>
+  </si>
+  <si>
+    <t>no es posible tener mas de un año  al mismo tiempo</t>
+  </si>
+  <si>
+    <t>Presupuestado</t>
+  </si>
+  <si>
+    <t>No Presupuestado</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Codigo Historico Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador del historico del detalle de presupuesto asegurando que sea único</t>
+  </si>
+  <si>
+    <t>Formato numérico</t>
+  </si>
+  <si>
+    <t>Valor que representa la diferencia entre el valor inicial ingresado en el detalle del presupuesto y el valor modificado para el mes correspondiente</t>
+  </si>
+  <si>
+    <t>Fecha Novedad</t>
+  </si>
+  <si>
+    <t>Fecha Hora</t>
+  </si>
+  <si>
+    <t>Formato fecha que incluye hora, minutos y segundos</t>
+  </si>
+  <si>
+    <t>Fecha y hora al momento de generar el registro</t>
+  </si>
+  <si>
+    <t>La fecha y hora representa el momento en que el usuario modificó el valor del rubro en el detalle del presupuesto para el mes correspondiente</t>
+  </si>
+  <si>
+    <t>Detalle Presupuesto</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1522,6 +1567,54 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1538,77 +1631,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1656,6 +1701,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1814,9 +1872,9 @@
       <sheetName val="Rubro-Dato Simulado"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="6">
           <cell r="P6" t="str">
@@ -1824,21 +1882,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19">
         <row r="6">
           <cell r="P6" t="str">
@@ -1847,10 +1905,16 @@
         </row>
       </sheetData>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+      <sheetData sheetId="21">
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>Atributo que representa el identificador de un detalle de presupuesto asegurando que sea único</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26">
         <row r="6">
@@ -2179,7 +2243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2189,69 +2255,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>68</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>70</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="B8" s="63">
         <v>8</v>
@@ -2260,7 +2326,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="B9" s="63">
         <v>9</v>
@@ -2269,7 +2335,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="B10" s="63">
         <v>10</v>
@@ -2278,16 +2344,16 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="B12" s="63">
         <v>12</v>
@@ -2348,76 +2414,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A5</f>
-        <v>persona</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v>Persona</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>usuario con su informacion</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
@@ -2431,75 +2497,75 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="U5" s="89" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77">
         <v>36</v>
@@ -2511,50 +2577,50 @@
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="78"/>
       <c r="K6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="T6" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C7" s="79">
         <v>36</v>
@@ -2566,50 +2632,50 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="79" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
       <c r="K7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P7" s="79" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R7" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="79">
         <v>1</v>
@@ -2621,52 +2687,52 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="79" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="I8" s="79"/>
       <c r="J8" s="80" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C9" s="79">
         <v>50</v>
@@ -2678,50 +2744,50 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="79" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="I9" s="79"/>
       <c r="J9" s="80"/>
       <c r="K9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P9" s="79" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T9" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C10" s="79">
         <v>36</v>
@@ -2733,50 +2799,50 @@
       <c r="F10" s="79"/>
       <c r="G10" s="79"/>
       <c r="H10" s="79" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="I10" s="79"/>
       <c r="J10" s="80"/>
       <c r="K10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P10" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="S10" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="Q10" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="R10" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="S10" s="77" t="s">
-        <v>236</v>
-      </c>
       <c r="T10" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -2785,41 +2851,41 @@
       <c r="G11" s="77"/>
       <c r="H11" s="77"/>
       <c r="I11" s="77" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="J11" s="77"/>
       <c r="K11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N11" s="77" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P11" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="Q11" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="R11" s="77" t="s">
-        <v>235</v>
-      </c>
       <c r="S11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2832,22 +2898,22 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="18" t="str">
         <f>A11</f>
@@ -2857,13 +2923,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -2871,109 +2937,97 @@
       <c r="A17" s="129"/>
       <c r="B17" s="129"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="121"/>
+      <c r="A19" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="119"/>
       <c r="C19" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
       <c r="G19" s="115"/>
       <c r="H19" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="114" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="114" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B22" s="114"/>
-      <c r="C22" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
+      <c r="C22" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="114" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="C23" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="114" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:I23"/>
@@ -2983,6 +3037,18 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{B8460968-8530-4368-8749-CE52A989105C}"/>
@@ -3017,7 +3083,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,11 +3095,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -3074,16 +3140,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D3">
         <v>3125411231</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3091,16 +3157,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D4">
         <v>3154567967</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3167,151 +3233,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A6</f>
-        <v xml:space="preserve">presupuesto </v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v xml:space="preserve">Presupuesto </v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Conjunto de los gastos e ingresos previstos para un determinado período de tiempo</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="U5" s="89" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8">
         <v>36</v>
@@ -3323,52 +3389,52 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="87" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="T6" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -3380,52 +3446,52 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P7" s="87" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R7" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -3437,52 +3503,52 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P8" s="88"/>
       <c r="Q8" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3490,44 +3556,44 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T9" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3540,22 +3606,22 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>A7</f>
@@ -3565,13 +3631,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="C14" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -3579,108 +3645,97 @@
       <c r="A15" s="129"/>
       <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="121"/>
+      <c r="A17" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="119"/>
       <c r="C17" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
       <c r="G17" s="115"/>
       <c r="H17" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="114" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B18" s="114"/>
-      <c r="C18" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
+      <c r="C18" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="114" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B19" s="114"/>
-      <c r="C19" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
+      <c r="C19" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="114" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="I21" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:I21"/>
@@ -3690,6 +3745,17 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{57113C4D-9B2D-48CE-AE84-2C0879BE2872}"/>
@@ -3723,7 +3789,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,12 +3801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3777,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74">
@@ -3789,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74">
@@ -3833,14 +3899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40E1B6-4531-4994-B6AC-90578AE62464}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -3864,151 +3930,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A7</f>
-        <v>año</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v>Año</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>año con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="U5" s="89" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C6" s="21">
         <v>4</v>
@@ -4020,44 +4086,44 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="T6" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4070,119 +4136,115 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="H10" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="130" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" s="131"/>
       <c r="C12" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
       <c r="G12" s="115"/>
       <c r="H12" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="118" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
+      <c r="A13" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
       <c r="H13" s="114" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="I13" s="114"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="A14" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="118"/>
+      <c r="C14" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
       <c r="H14" s="114" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
+      <c r="A15" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="114" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
+      <c r="A16" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="118"/>
+      <c r="C16" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="114" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="I16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:I13"/>
@@ -4195,6 +4257,12 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'año datos simulados'!A1" display="datos simulados" xr:uid="{3544F9ED-80DF-45D5-A032-80ECB60EBB03}"/>
@@ -4238,7 +4306,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4292,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368A708-2749-4703-86E8-954F21D6A2C1}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,151 +4391,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A8</f>
-        <v>detalles presupuesto</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v>Detalles Presupuesto</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="111">
         <f>'objeto de dominio'!B8</f>
         <v>8</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="U5" s="89" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77">
         <v>36</v>
@@ -4479,52 +4547,52 @@
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O6" s="77" t="s">
-        <v>182</v>
+        <v>150</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="T6" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C7" s="77">
         <v>36</v>
@@ -4536,51 +4604,51 @@
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
       <c r="H7" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I7" s="77"/>
       <c r="J7" s="78"/>
-      <c r="K7" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O7" s="77" t="s">
-        <v>182</v>
+      <c r="K7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="P7" s="71" t="str">
         <f>+[1]Presupuesto!P6</f>
         <v>Atributo que representa el identificador de un presupuesto asegurando que sea único</v>
       </c>
       <c r="Q7" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R7" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="77">
         <v>36</v>
@@ -4592,51 +4660,51 @@
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
       <c r="H8" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I8" s="77"/>
       <c r="J8" s="78"/>
-      <c r="K8" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L8" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N8" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>182</v>
+      <c r="K8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="P8" s="71" t="str">
         <f>+'[1]Tipo Detalle Presupuesto'!P6</f>
         <v>Atributo que representa el identificador de un tipo de detalle de presupuesto asegurando que sea único</v>
       </c>
       <c r="Q8" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C9" s="77">
         <v>36</v>
@@ -4648,51 +4716,51 @@
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="H9" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I9" s="77"/>
       <c r="J9" s="78"/>
-      <c r="K9" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="77" t="s">
-        <v>182</v>
+      <c r="K9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="P9" s="77" t="str">
         <f>+[1]Rubro!P7</f>
         <v>Atributo que representa el identificador de un rubro dentro de un tipo de rubro</v>
       </c>
       <c r="Q9" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T9" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>2</v>
@@ -4704,51 +4772,51 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
       <c r="H10" s="77" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N10" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>183</v>
+      <c r="K10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="P10" s="77" t="str">
         <f>+[1]Mes!$P6</f>
         <v xml:space="preserve">Atributo que representa el número del mes </v>
       </c>
       <c r="Q10" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R10" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S10" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T10" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C11" s="77">
         <v>36</v>
@@ -4760,46 +4828,46 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="H11" s="77" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="I11" s="77" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="N11" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>183</v>
+        <v>234</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="P11" s="77" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R11" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4840,22 +4908,22 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="132" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="B15" s="135" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C15" s="75" t="str">
         <f>+A8</f>
@@ -4882,92 +4950,96 @@
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="121"/>
+      <c r="A19" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="119"/>
       <c r="C19" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
       <c r="G19" s="115"/>
       <c r="H19" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B20" s="114"/>
-      <c r="C20" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B22" s="114"/>
-      <c r="C22" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
+      <c r="C22" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="C23" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="114" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
@@ -4984,10 +5056,6 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D650644-FFEC-4B37-9193-FDFBE7D6B5DF}"/>
@@ -4997,12 +5065,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{725FBF76-2B6E-451E-AD6B-83113FDA9CEF}">
           <x14:formula1>
             <xm:f>valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6 B8:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F620E0DB-6F8F-4F18-AF64-0CC449BDC0F2}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5014,14 +5088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBAB2E-38B0-4A92-9C59-FA8DBF34BEC1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
@@ -5029,12 +5103,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5075,31 +5149,35 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="139">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="140">
+        <v>3500000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="139">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="140">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -5133,16 +5211,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -5160,350 +5238,530 @@
     <col min="17" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A9</f>
-        <v xml:space="preserve">historico detalle presupuesto </v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Historico Detalle Presupuesto </v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="111">
         <f>'objeto de dominio'!B9</f>
         <v>9</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="R5" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="U5" s="89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="141">
         <v>36</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="141">
         <v>36</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14" t="s">
-        <v>29</v>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78" t="s">
+        <v>150</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="8">
+        <v>125</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="T6" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" s="77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="141">
+        <v>36</v>
+      </c>
+      <c r="D7" s="141">
+        <v>36</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="71" t="str">
+        <f>+'[1]Detalle Presupuesto'!P6</f>
+        <v>Atributo que representa el identificador de un detalle de presupuesto asegurando que sea único</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="S7" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="T7" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="141">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>29</v>
+      <c r="D8" s="141">
+        <v>20</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="T8" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" s="77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="141">
+        <v>20</v>
+      </c>
+      <c r="D9" s="141">
+        <v>20</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" s="78"/>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="S9" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="T9" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="U9" s="77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>A7</f>
-        <v>nombre</v>
+        <v>Detalle Presupuesto</v>
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="129"/>
       <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="119"/>
+      <c r="C17" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="115"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="114"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="114"/>
+      <c r="C19" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="114"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="114"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="114"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -5518,18 +5776,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE67B21B-7F9B-4D41-9483-A42D075EC841}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA9EEF97-E447-4A8E-A800-679E161EFCE1}">
           <x14:formula1>
             <xm:f>valores!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D6FE5EE-BC69-4542-8A22-24483501554B}">
-          <x14:formula1>
-            <xm:f>valores!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5547,19 +5799,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5596,13 +5848,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5610,13 +5862,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5701,136 +5953,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A10</f>
-        <v xml:space="preserve">ejecucion real detalle presupuesto </v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v xml:space="preserve">Ejecucion Real Detalle Presupuesto </v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="111">
         <f>'objeto de dominio'!B10</f>
         <v>10</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8">
         <v>36</v>
@@ -5842,37 +6094,37 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -5884,37 +6136,37 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -5926,39 +6178,39 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5967,26 +6219,26 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5999,22 +6251,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>A7</f>
@@ -6024,13 +6276,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="C14" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -6038,7 +6290,7 @@
       <c r="A15" s="129"/>
       <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -6094,12 +6346,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6136,13 +6388,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -6150,13 +6402,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6216,133 +6468,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A11</f>
-        <v>mes</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v>Mes</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>mes con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>3</v>
@@ -6357,29 +6609,29 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="O6" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -6392,35 +6644,35 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="18"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="C11" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -6428,7 +6680,7 @@
       <c r="A12" s="129"/>
       <c r="B12" s="129"/>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11"/>
     </row>
@@ -6466,12 +6718,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6508,13 +6760,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -6522,13 +6774,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6588,133 +6840,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A12</f>
-        <v xml:space="preserve">tipo detalle presupuesto </v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v xml:space="preserve">Tipo Detalle Presupuesto </v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="111">
         <f>'objeto de dominio'!B12</f>
         <v>12</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>1</v>
@@ -6729,34 +6981,34 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
@@ -6771,34 +7023,34 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>1</v>
@@ -6813,36 +7065,36 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>2</v>
@@ -6854,26 +7106,26 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -6886,22 +7138,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>A7</f>
@@ -6911,13 +7163,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="C14" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -6925,7 +7177,7 @@
       <c r="A15" s="129"/>
       <c r="B15" s="129"/>
       <c r="C15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -6981,12 +7233,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -7023,13 +7275,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -7037,13 +7289,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7092,45 +7344,45 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B2" t="str">
         <f>PROPER(A2)</f>
         <v>Alfanumerico</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B6" si="0">PROPER(A3)</f>
         <v>Entero</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -7139,7 +7391,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7148,7 +7400,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -7157,7 +7409,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B7" t="str">
         <f>PROPER(A7)</f>
@@ -7210,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7241,76 +7493,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A2</f>
-        <v>tipo rubro</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v>Tipo Rubro</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B2</f>
         <v xml:space="preserve">entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertemece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser el ingreso, el cual indica el dinero que recibio </v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -7330,80 +7582,80 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="F5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="G5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="H5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="56" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="56" t="s">
+      <c r="O5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="55" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>$A$19</f>
-        <v xml:space="preserve">crear tipo rubro </v>
+        <v xml:space="preserve">crear Tipo Rubro </v>
       </c>
       <c r="R5" s="31" t="str">
         <f>$A$20</f>
-        <v xml:space="preserve">cambiar estado tipo rubro </v>
+        <v xml:space="preserve">cambiar estado Tipo Rubro </v>
       </c>
       <c r="S5" s="31" t="str">
         <f>$A$22</f>
-        <v>modificar tipo rubro</v>
+        <v>modificar Tipo Rubro</v>
       </c>
       <c r="T5" s="31" t="str">
         <f>$A$23</f>
-        <v xml:space="preserve">eliminar tipo rubro </v>
+        <v xml:space="preserve">eliminar Tipo Rubro </v>
       </c>
       <c r="U5" s="31" t="str">
         <f>A24</f>
-        <v xml:space="preserve">consultar tipo rubro </v>
+        <v xml:space="preserve">consultar Tipo Rubro </v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="42">
         <v>36</v>
@@ -7415,52 +7667,52 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C7" s="42">
         <v>1</v>
@@ -7472,52 +7724,52 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P7" s="71" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="42">
         <v>1</v>
@@ -7529,54 +7781,54 @@
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P8" s="71" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -7585,41 +7837,41 @@
       <c r="G9" s="42"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="42" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -7660,13 +7912,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -7684,10 +7936,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="58" t="str">
         <f>A7</f>
@@ -7708,14 +7960,14 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="C14" s="48" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -7732,10 +7984,10 @@
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -7788,193 +8040,193 @@
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="99"/>
+      <c r="A18" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="96"/>
       <c r="J18" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="99"/>
+        <v>83</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="96"/>
       <c r="M18" s="34" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="98"/>
+      <c r="A19" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="95"/>
       <c r="J19" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="107" t="str">
+        <v>84</v>
+      </c>
+      <c r="K19" s="97" t="str">
         <f>$A$28</f>
         <v>TR-P-1</v>
       </c>
-      <c r="L19" s="107"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="34" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="107" t="str">
+      <c r="A20" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="I20" s="103"/>
+      <c r="J20" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="97" t="str">
         <f>$A$29</f>
         <v>TR-P-2</v>
       </c>
-      <c r="L20" s="107"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="34" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="108" t="str">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="98" t="str">
         <f>$A$30</f>
         <v>TR-P-3</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="34" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="98"/>
+      <c r="A22" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="I22" s="95"/>
       <c r="J22" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
+        <v>84</v>
+      </c>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="98"/>
+      <c r="A23" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" s="95"/>
       <c r="J23" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
+        <v>84</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="98"/>
+      <c r="A24" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="95"/>
       <c r="J24" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
+        <v>269</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
@@ -8018,13 +8270,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -8040,13 +8292,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+        <v>86</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -8062,13 +8314,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
+        <v>88</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -8084,13 +8336,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
+        <v>89</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -8196,27 +8448,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -8226,11 +8462,27 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{D5AC8310-2B3B-4FE9-B549-F82D2DC4804B}"/>
@@ -8265,7 +8517,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,12 +8529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -8314,7 +8566,7 @@
         <v xml:space="preserve">Estado </v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -8322,13 +8574,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="68" t="str">
         <f>+B3</f>
@@ -8340,13 +8592,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="68" t="str">
         <f>+B4</f>
@@ -8384,8 +8636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4DED06-BCF9-4CF0-8785-A4BC39484F95}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8415,24 +8667,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="A1" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -8445,24 +8697,24 @@
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="95" t="str">
+      <c r="B2" s="111" t="str">
         <f>'objeto de dominio'!A3</f>
-        <v xml:space="preserve">rubro </v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+        <v xml:space="preserve">Rubro </v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
@@ -8475,24 +8727,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B3</f>
         <v xml:space="preserve">el título o rótulo de una cosa, a través del cual se agrupan </v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -8501,15 +8753,15 @@
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="A4" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -8528,81 +8780,81 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="H5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="49" t="str">
         <f>$A$21</f>
-        <v>crear rubro</v>
+        <v>crear Rubro</v>
       </c>
       <c r="R5" s="49" t="str">
         <f>$A$22</f>
-        <v xml:space="preserve">cambiar estado rubro </v>
+        <v xml:space="preserve">cambiar estado Rubro </v>
       </c>
       <c r="S5" s="49" t="str">
         <f>$A$23</f>
-        <v>consultar rubro</v>
+        <v>consultar Rubro</v>
       </c>
       <c r="T5" s="49" t="str">
         <f>$A$24</f>
-        <v xml:space="preserve">modificar rubro </v>
+        <v xml:space="preserve">modificar Rubro </v>
       </c>
       <c r="U5" s="49" t="str">
         <f>$A$25</f>
-        <v xml:space="preserve">eliminar rubro  </v>
+        <v xml:space="preserve">eliminar Rubro  </v>
       </c>
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="40">
         <v>36</v>
@@ -8614,53 +8866,53 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C7" s="40">
         <v>1</v>
@@ -8672,53 +8924,53 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P7" s="71" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="T7" s="50" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="U7" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="40">
         <v>1</v>
@@ -8730,55 +8982,55 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P8" s="71" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="T8" s="50" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="U8" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C9" s="40">
         <v>1</v>
@@ -8790,115 +9042,115 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="Q9" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="T9" s="50" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="U9" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P10" s="71" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="T10" s="50" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="U10" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -8907,43 +9159,43 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P11" s="71" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="T11" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U11" s="50" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="V11" s="11"/>
     </row>
@@ -8997,13 +9249,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -9027,10 +9279,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>A6</f>
@@ -9057,11 +9309,11 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>86</v>
+      <c r="A16" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>247</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>A7</f>
@@ -9088,11 +9340,11 @@
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="53" t="str">
         <f>A10</f>
-        <v>tipo rubro</v>
+        <v>Tipo Rubro</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -9163,19 +9415,19 @@
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="121"/>
+      <c r="A20" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="119"/>
       <c r="C20" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D20" s="115"/>
       <c r="E20" s="115"/>
       <c r="F20" s="115"/>
       <c r="G20" s="115"/>
       <c r="H20" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I20" s="115"/>
       <c r="J20" s="37"/>
@@ -9194,18 +9446,18 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="114" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="I21" s="114"/>
       <c r="J21" s="37"/>
@@ -9223,19 +9475,19 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
+      <c r="A22" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="114" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="I22" s="114"/>
       <c r="J22" s="37"/>
@@ -9254,18 +9506,18 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="C23" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="114" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="I23" s="114"/>
       <c r="J23" s="37"/>
@@ -9284,18 +9536,18 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="114" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="B24" s="114"/>
-      <c r="C24" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
+      <c r="C24" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="114" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="I24" s="114"/>
       <c r="J24" s="37"/>
@@ -9314,18 +9566,18 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="114" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="B25" s="114"/>
-      <c r="C25" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
+      <c r="C25" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="114" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="I25" s="114"/>
       <c r="J25" s="37"/>
@@ -9532,6 +9784,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C20:G20"/>
@@ -9548,14 +9808,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{AA9518DE-367D-4192-9757-ACB4D9BE99A3}"/>
@@ -9596,7 +9848,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9607,11 +9859,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -9644,7 +9896,7 @@
       </c>
       <c r="E2" s="3" t="str">
         <f>rubro!$A$10</f>
-        <v>tipo rubro</v>
+        <v>Tipo Rubro</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>rubro!$A$11</f>
@@ -9656,19 +9908,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>2000000</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9676,19 +9928,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>700000</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9762,76 +10014,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="110" t="str">
         <f>'objeto de dominio'!A4</f>
-        <v xml:space="preserve">compromiso financiero </v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+        <v xml:space="preserve">Compromiso Financiero </v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="111" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>lista de responsabilidades financieras con toda su informacio relacionada</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
@@ -9845,75 +10097,75 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="R5" s="89" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="U5" s="89" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" s="21">
         <v>36</v>
@@ -9925,53 +10177,53 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="P6" s="71" t="str">
         <f>+'[1]Tipo Compromiso Financiero'!P6</f>
         <v>Atributo que representa el identificador de un tipo de compromiso financiero asegurando que sea único</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="S6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="T6" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -9983,52 +10235,52 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P7" s="71" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R7" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -10040,54 +10292,54 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P8" s="71" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U8" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
@@ -10099,52 +10351,52 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T9" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -10152,52 +10404,52 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="22" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R10" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S10" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T10" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -10205,44 +10457,44 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="R11" s="77" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="S11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="T11" s="77" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="U11" s="77" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -10283,22 +10535,22 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C15" s="82" t="str">
         <f>A7</f>
@@ -10308,13 +10560,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="126" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -10322,7 +10574,7 @@
       <c r="A17" s="124"/>
       <c r="B17" s="127"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -10333,98 +10585,98 @@
       <c r="H18" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="121"/>
+      <c r="A20" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="119"/>
       <c r="C20" s="115" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D20" s="115"/>
       <c r="E20" s="115"/>
       <c r="F20" s="115"/>
       <c r="G20" s="115"/>
       <c r="H20" s="115" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I20" s="115"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B21" s="114"/>
-      <c r="C21" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="114" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B22" s="114"/>
-      <c r="C22" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
+      <c r="C22" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="114" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="C23" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="114" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="I23" s="114"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="114" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B24" s="114"/>
-      <c r="C24" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
+      <c r="C24" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="114" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
@@ -10434,12 +10686,12 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{8A056860-BB44-4A49-8558-1F0847D1108A}"/>
@@ -10474,7 +10726,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10488,12 +10740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -10538,13 +10790,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="E3" s="85">
         <v>45291</v>
@@ -10558,13 +10810,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="E4" s="85">
         <v>44942</v>

--- a/Clase/Modelo de dominio/doo/doo.xlsx
+++ b/Clase/Modelo de dominio/doo/doo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Presupuesto\Clase\Modelo de dominio\doo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B52A85-02EF-4FFD-86DB-529F0B3099CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18257B88-0CD9-4BE7-9C03-B80A1A86C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" firstSheet="15" activeTab="17" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
+    <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" tabRatio="646" activeTab="3" xr2:uid="{6F6BD445-9B01-4604-8A63-28FF2D43D342}"/>
   </bookViews>
   <sheets>
     <sheet name="objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="326">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -941,6 +941,105 @@
   </si>
   <si>
     <t>Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>PE4 - Requisitos de información</t>
+  </si>
+  <si>
+    <t>El documento tiene un aspecto claro y coherente a nivel de estructura que permita navegar de forma simple</t>
+  </si>
+  <si>
+    <t>Se han documentado de forma clara y en lenguaje ubicuo las entidades y sus atributos</t>
+  </si>
+  <si>
+    <t>Se han identificado claramente las entidades y sus metadatos (rango, obligatoriedad, sensibilidad)</t>
+  </si>
+  <si>
+    <t>Se ha utilizado la notación correcta de nombramiento</t>
+  </si>
+  <si>
+    <t>Se han identificado claramente las unicidades de la entidad</t>
+  </si>
+  <si>
+    <t>Se han identificado los tipos de datos adecuados</t>
+  </si>
+  <si>
+    <t>Se han identificado claramente las reglas específicas para cada atributo</t>
+  </si>
+  <si>
+    <t>La socialización de los requisitos de información, ha sido lo sufientemente clara para comprender el problema</t>
+  </si>
+  <si>
+    <t>Tener cuidado a los atributos identificados, dado que probablemente, motiven a que existan otros objetos de dominio. Adicionalmente, no representan los otros objetos de dominio involucradros.</t>
+  </si>
+  <si>
+    <t>Faltan atributos que referencian a otras entidades.</t>
+  </si>
+  <si>
+    <t>No se nombran con regla capital los objetos de dominio.</t>
+  </si>
+  <si>
+    <t>En gran mayoría se habla del id, pero realmente el ID siempre va a ser único.</t>
+  </si>
+  <si>
+    <t>Faltan atributos que referencian a otras entidades y por consiguiente, serán de un tipon de dato especial.</t>
+  </si>
+  <si>
+    <t>No se comprende fácilmente, por los datos faltantes. No se repreesnta de forma clara el problema.</t>
+  </si>
+  <si>
+    <t>PE6 - Diagrama de clases</t>
+  </si>
+  <si>
+    <t>Se ha modelado claramente un diseño lógico que soluciona el problema planteado</t>
+  </si>
+  <si>
+    <t>El modelo de clases se ha propuesto, teniendo en cuenta todo el análisis preliminar</t>
+  </si>
+  <si>
+    <t>Las relaciones utilizadas son claras y consistentes</t>
+  </si>
+  <si>
+    <t>Se ha realizado un diseño cuidadoso, que apunte a asegurar que el modelo técnicamente responda a las necesidades de negocio</t>
+  </si>
+  <si>
+    <t>El estándar de nombramiento de las clases se aplica correctamente</t>
+  </si>
+  <si>
+    <t>El estándar de nombramiento de los atributos se aplica correctamente</t>
+  </si>
+  <si>
+    <t>Los tipos de datos y modificadores de acceso asignados a cada atributo son coherentes</t>
+  </si>
+  <si>
+    <t>El estándar de nombramiento de los métodos se aplica correctamente</t>
+  </si>
+  <si>
+    <t>Los tipos de datos y modificadores de acceso asignados a método en su tipo de dato de retorno, cada parámetro son coherentes</t>
+  </si>
+  <si>
+    <t>Se han asignado claramente las responsabilidades a quien realmente la debe llevar a cabo.</t>
+  </si>
+  <si>
+    <t>Se ha llevado a cabo un modelamiento, asegurando que el modelo pueda ser comprendido claramente.</t>
+  </si>
+  <si>
+    <t>La socialización del modelo de clases se ha llevado a cabo con seguridad, se han respondido los cuestionamientos y se tiene claridad de cómo solucionar el problema lógicamente</t>
+  </si>
+  <si>
+    <t>¿Cómo se logra modelar si el trabajo previo no estuvo completo?</t>
+  </si>
+  <si>
+    <t>Aunque no se explicó la motivación del por qué</t>
+  </si>
+  <si>
+    <t>¿Por qué atributos públicos y privados?</t>
+  </si>
+  <si>
+    <t>No se modelaron comportamientos de negocio claves.</t>
+  </si>
+  <si>
+    <t>Se refleja las falencias de procesos previos.</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1049,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,8 +1099,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1220,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1567,141 +1686,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1714,6 +1698,165 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,9 +2015,9 @@
       <sheetName val="Rubro-Dato Simulado"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="6">
           <cell r="P6" t="str">
@@ -1882,21 +2025,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19">
         <row r="6">
           <cell r="P6" t="str">
@@ -1912,9 +2055,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26">
         <row r="6">
@@ -2241,19 +2384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3A53C3-127F-4FB1-B767-C55AA23A65C9}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>243</v>
       </c>
@@ -2269,8 +2414,12 @@
         <v>9</v>
       </c>
       <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>271</v>
       </c>
@@ -2278,8 +2427,12 @@
         <v>56</v>
       </c>
       <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="99" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>272</v>
       </c>
@@ -2287,8 +2440,14 @@
         <v>57</v>
       </c>
       <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>185</v>
       </c>
@@ -2296,8 +2455,14 @@
         <v>58</v>
       </c>
       <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>273</v>
       </c>
@@ -2305,8 +2470,14 @@
         <v>59</v>
       </c>
       <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>184</v>
       </c>
@@ -2314,8 +2485,14 @@
         <v>60</v>
       </c>
       <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>274</v>
       </c>
@@ -2323,8 +2500,14 @@
         <v>8</v>
       </c>
       <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>275</v>
       </c>
@@ -2332,8 +2515,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>276</v>
       </c>
@@ -2341,8 +2528,14 @@
         <v>10</v>
       </c>
       <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>230</v>
       </c>
@@ -2351,7 +2544,7 @@
       </c>
       <c r="C11" s="30"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>277</v>
       </c>
@@ -2359,6 +2552,98 @@
         <v>12</v>
       </c>
       <c r="C12" s="18"/>
+      <c r="E12" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="105"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E13" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14" s="103" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E16" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="103" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="105"/>
+    </row>
+    <row r="18" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="105"/>
+    </row>
+    <row r="19" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="105"/>
+    </row>
+    <row r="21" spans="5:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E21" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E22" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E23" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2414,85 +2699,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A5</f>
         <v>Persona</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B5</f>
         <v>usuario con su informacion</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2922,10 +3207,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2934,97 +3219,97 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="115" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="115"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="114" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="114" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="114" t="s">
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3095,11 +3380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -3233,72 +3518,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A6</f>
         <v xml:space="preserve">Presupuesto </v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B6</f>
         <v>Conjunto de los gastos e ingresos previstos para un determinado período de tiempo</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3630,10 +3915,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -3642,97 +3927,97 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="115"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="114" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="127"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="116" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="114" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="114"/>
+      <c r="I19" s="127"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="114" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3801,12 +4086,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -3930,72 +4215,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A7</f>
         <v>Año</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B7</f>
         <v>año con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4150,7 +4435,7 @@
       <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="93" t="s">
         <v>278</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -4159,89 +4444,89 @@
       <c r="H10" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="115" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="115"/>
+      <c r="I12" s="128"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="131"/>
+      <c r="C13" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="114" t="s">
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="114"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="114" t="s">
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="I14" s="114"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="114" t="s">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="I15" s="114"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="131"/>
+      <c r="C16" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="114" t="s">
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4391,72 +4676,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A8</f>
         <v>Detalles Presupuesto</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="124">
         <f>'objeto de dominio'!B8</f>
         <v>8</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4919,10 +5204,10 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="148" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="75" t="str">
@@ -4932,8 +5217,8 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="136"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="75" t="str">
         <f t="shared" ref="C16:C17" si="0">+A9</f>
         <v>Rubro</v>
@@ -4941,8 +5226,8 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="137"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>Mes</v>
@@ -4950,93 +5235,92 @@
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="115" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="115"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="114" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="114" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="114" t="s">
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
@@ -5056,6 +5340,7 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'objeto de dominio'!A1" display="valor inicial " xr:uid="{9D650644-FFEC-4B37-9193-FDFBE7D6B5DF}"/>
@@ -5103,12 +5388,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5149,34 +5434,34 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="139">
+      <c r="A3" s="94">
         <v>1</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="140">
+      <c r="F3" s="95">
         <v>3500000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="139">
+      <c r="A4" s="94">
         <v>2</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="95">
         <v>100000</v>
       </c>
     </row>
@@ -5213,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83D28-25DC-43FE-8F97-E5F95A575D12}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,72 +5524,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A9</f>
         <v xml:space="preserve">Historico Detalle Presupuesto </v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="124">
         <f>'objeto de dominio'!B9</f>
         <v>9</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5378,17 +5663,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>283</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="141">
+      <c r="C6" s="96">
         <v>36</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="96">
         <v>36</v>
       </c>
       <c r="E6" s="77"/>
@@ -5435,17 +5720,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="97" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="96">
         <v>36</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="96">
         <v>36</v>
       </c>
       <c r="E7" s="77"/>
@@ -5493,17 +5778,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="96">
         <v>1</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="96">
         <v>20</v>
       </c>
       <c r="E8" s="77"/>
@@ -5550,17 +5835,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>287</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="141">
+      <c r="C9" s="96">
         <v>20</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="96">
         <v>20</v>
       </c>
       <c r="E9" s="77"/>
@@ -5641,10 +5926,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5653,97 +5938,97 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="115"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="114" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="127"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="116" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="114" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="114"/>
+      <c r="I19" s="127"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="114" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5806,12 +6091,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -5953,72 +6238,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A10</f>
         <v xml:space="preserve">Ejecucion Real Detalle Presupuesto </v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="124">
         <f>'objeto de dominio'!B10</f>
         <v>10</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6275,10 +6560,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -6287,8 +6572,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
@@ -6346,12 +6631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6468,72 +6753,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A11</f>
         <v>Mes</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B11</f>
         <v>mes con en el que se relaciona una informacion</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6665,10 +6950,10 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -6677,8 +6962,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="142"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="17" t="s">
         <v>47</v>
       </c>
@@ -6718,12 +7003,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -6840,72 +7125,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A12</f>
         <v xml:space="preserve">Tipo Detalle Presupuesto </v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="124">
         <f>'objeto de dominio'!B12</f>
         <v>12</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7162,10 +7447,10 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="142" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -7174,8 +7459,8 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
@@ -7233,12 +7518,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -7462,7 +7747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E774D98-0178-4EA0-BA79-90C89989CA2B}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -7493,72 +7778,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B2</f>
         <v xml:space="preserve">entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertemece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser el ingreso, el cual indica el dinero que recibio </v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -7960,10 +8245,10 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="126" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -7984,8 +8269,8 @@
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="48" t="s">
         <v>47</v>
       </c>
@@ -8040,28 +8325,28 @@
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="121"/>
+      <c r="C18" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="96"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="96"/>
+      <c r="L18" s="109"/>
       <c r="M18" s="34" t="s">
         <v>91</v>
       </c>
@@ -8070,29 +8355,29 @@
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="95"/>
+      <c r="I19" s="108"/>
       <c r="J19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="97" t="str">
+      <c r="K19" s="110" t="str">
         <f>$A$28</f>
         <v>TR-P-1</v>
       </c>
-      <c r="L19" s="97"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="34" t="s">
         <v>92</v>
       </c>
@@ -8101,29 +8386,29 @@
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="102" t="s">
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="100" t="s">
+      <c r="I20" s="116"/>
+      <c r="J20" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="97" t="str">
+      <c r="K20" s="110" t="str">
         <f>$A$29</f>
         <v>TR-P-2</v>
       </c>
-      <c r="L20" s="97"/>
+      <c r="L20" s="110"/>
       <c r="M20" s="34" t="s">
         <v>93</v>
       </c>
@@ -8132,21 +8417,21 @@
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="98" t="str">
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="111" t="str">
         <f>$A$30</f>
         <v>TR-P-3</v>
       </c>
-      <c r="L21" s="99"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="34" t="s">
         <v>94</v>
       </c>
@@ -8155,78 +8440,78 @@
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95" t="s">
+      <c r="B22" s="108"/>
+      <c r="C22" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="95"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95" t="s">
+      <c r="B23" s="108"/>
+      <c r="C23" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95" t="s">
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="I23" s="95"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95" t="s">
+      <c r="B24" s="108"/>
+      <c r="C24" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
@@ -8272,11 +8557,11 @@
       <c r="A27" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -8294,11 +8579,11 @@
       <c r="A28" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -8316,11 +8601,11 @@
       <c r="A29" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -8338,11 +8623,11 @@
       <c r="A30" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -8529,12 +8814,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -8667,24 +8952,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -8697,24 +8982,24 @@
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="111" t="str">
+      <c r="B2" s="124" t="str">
         <f>'objeto de dominio'!A3</f>
         <v xml:space="preserve">Rubro </v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
@@ -8727,24 +9012,24 @@
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B3</f>
         <v xml:space="preserve">el título o rótulo de una cosa, a través del cual se agrupan </v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -8753,15 +9038,15 @@
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -8778,7 +9063,7 @@
       <c r="U4" s="37"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
@@ -9309,10 +9594,10 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="126" t="s">
         <v>247</v>
       </c>
       <c r="C16" s="53" t="str">
@@ -9340,8 +9625,8 @@
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="53" t="str">
         <f>A10</f>
         <v>Tipo Rubro</v>
@@ -9415,21 +9700,21 @@
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="115" t="s">
+      <c r="B20" s="132"/>
+      <c r="C20" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="128"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -9445,21 +9730,21 @@
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -9475,21 +9760,21 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="131"/>
+      <c r="C22" s="129" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="114" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
@@ -9505,21 +9790,21 @@
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="114" t="s">
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="127"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -9535,21 +9820,21 @@
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="116" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="114" t="s">
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="I24" s="114"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -9565,21 +9850,21 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="116" t="s">
+      <c r="B25" s="127"/>
+      <c r="C25" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="114" t="s">
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="I25" s="114"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -9859,11 +10144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -10014,85 +10299,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>'objeto de dominio'!$A$1</f>
         <v>objetos de dominio</v>
       </c>
-      <c r="B2" s="110" t="str">
+      <c r="B2" s="123" t="str">
         <f>'objeto de dominio'!A4</f>
         <v xml:space="preserve">Compromiso Financiero </v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>'objeto de dominio'!B1</f>
         <v>descripcio</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="124" t="str">
         <f>'objeto de dominio'!B4</f>
         <v>lista de responsabilidades financieras con toda su informacio relacionada</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -10559,10 +10844,10 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="139" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -10571,103 +10856,103 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="17"/>
       <c r="H18" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="115" t="s">
+      <c r="B20" s="132"/>
+      <c r="C20" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="114" t="s">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="114" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="114" t="s">
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="127"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="116" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="114" t="s">
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="114"/>
+      <c r="I24" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10740,12 +11025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
